--- a/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/2D/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1181" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{048D7316-04DA-44C3-9621-54852FEF2F32}"/>
+  <xr:revisionPtr revIDLastSave="1508" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{773F6229-E593-4300-82E3-6D6D25320ED4}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-7275" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
     <sheet name="calc templ" sheetId="8" r:id="rId2"/>
+    <sheet name="04 calc" sheetId="15" r:id="rId3"/>
+    <sheet name="01 calc" sheetId="16" r:id="rId4"/>
+    <sheet name="05 calc" sheetId="17" r:id="rId5"/>
+    <sheet name="06 calc" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="75">
   <si>
     <t>Model</t>
   </si>
@@ -109,70 +113,6 @@
   </si>
   <si>
     <t>DERIVED PARAMETERS</t>
-  </si>
-  <si>
-    <r>
-      <t>nu</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nu</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nu</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nu</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2b</t>
-    </r>
   </si>
   <si>
     <r>
@@ -437,9 +377,6 @@
     <t>MODEL:</t>
   </si>
   <si>
-    <t>TYPE:</t>
-  </si>
-  <si>
     <t>01.schange</t>
   </si>
   <si>
@@ -477,6 +414,126 @@
   </si>
   <si>
     <t>06.sec_contact_bottle_schange_thr_epoch</t>
+  </si>
+  <si>
+    <t>Run 1 Rep 12</t>
+  </si>
+  <si>
+    <t>Run 2 Rep 59</t>
+  </si>
+  <si>
+    <t>Run 3 Rep 73</t>
+  </si>
+  <si>
+    <t>Run 4 Rep 67</t>
+  </si>
+  <si>
+    <t>Run 3 Rep 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run 4 </t>
+  </si>
+  <si>
+    <r>
+      <t>nu</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nu</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nu</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nu</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nu</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nu</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2f</t>
+    </r>
+  </si>
+  <si>
+    <t>MIGR PERIOD</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -524,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +606,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -931,11 +1024,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -962,7 +1099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -990,6 +1126,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,9 +1149,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,16 +1158,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,6 +1172,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,15 +1486,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="17" width="7" bestFit="1" customWidth="1"/>
@@ -1347,37 +1510,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="42" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="48"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1412,26 +1575,26 @@
         <v>5</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>9</v>
@@ -1439,88 +1602,418 @@
       <c r="U2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="42" t="s">
         <v>12</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B3" s="48">
+        <v>-100346.1</v>
+      </c>
+      <c r="C3">
+        <v>-119954.2</v>
+      </c>
+      <c r="D3">
+        <v>-119405.3</v>
+      </c>
+      <c r="E3">
+        <v>-102060.1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-108924.9</v>
+      </c>
+      <c r="G3" s="43">
+        <v>200702.2</v>
+      </c>
+      <c r="H3">
+        <v>239918.4</v>
+      </c>
+      <c r="I3">
+        <v>238820.6</v>
+      </c>
+      <c r="J3">
+        <v>204130.2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>217859.7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3">
+        <v>336964</v>
+      </c>
+      <c r="N3">
+        <v>0.1497</v>
+      </c>
+      <c r="O3">
+        <v>3.7086999999999999</v>
+      </c>
+      <c r="R3">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.01E-2</v>
+      </c>
+      <c r="V3">
+        <v>2.3199999999999998E-2</v>
+      </c>
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>-149144.5</v>
+      </c>
+      <c r="C4" s="50">
+        <v>-118835.8</v>
+      </c>
+      <c r="D4">
+        <v>-120897.2</v>
+      </c>
+      <c r="E4">
+        <v>-175540.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-189346.5</v>
+      </c>
+      <c r="G4">
+        <v>298304.90000000002</v>
+      </c>
+      <c r="H4" s="43">
+        <v>237687.7</v>
+      </c>
+      <c r="I4">
+        <v>241810.4</v>
+      </c>
+      <c r="J4">
+        <v>351097</v>
+      </c>
+      <c r="K4" s="4">
+        <v>378708.9</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4">
+        <v>315612.09999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.3014</v>
+      </c>
+      <c r="P4">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="Q4">
+        <v>1.0822000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="S4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V4">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="W4">
+        <v>3.2099999999999997E-2</v>
+      </c>
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="X5" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>-248327.6</v>
+      </c>
+      <c r="C5">
+        <v>-1213186</v>
+      </c>
+      <c r="D5">
+        <v>-411871.9</v>
+      </c>
+      <c r="E5" s="49">
+        <v>-228936.9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-1124581</v>
+      </c>
+      <c r="G5">
+        <v>496673.2</v>
+      </c>
+      <c r="H5">
+        <v>2426391</v>
+      </c>
+      <c r="I5">
+        <v>823761.9</v>
+      </c>
+      <c r="J5" s="43">
+        <v>457891.8</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2249180</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>219902.3</v>
+      </c>
+      <c r="N5">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="O5">
+        <v>21.985199999999999</v>
+      </c>
+      <c r="P5">
+        <v>2.8016000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.1149</v>
+      </c>
+      <c r="S5">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="V5">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="W5">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>6.0400000000000002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>-93094.8</v>
+      </c>
+      <c r="C6">
+        <v>-86262.81</v>
+      </c>
+      <c r="D6" s="45">
+        <v>-81001.600000000006</v>
+      </c>
+      <c r="E6">
+        <v>-104189.1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-131517.29999999999</v>
+      </c>
+      <c r="G6">
+        <v>186205.6</v>
+      </c>
+      <c r="H6">
+        <v>172541.6</v>
+      </c>
+      <c r="I6" s="43">
+        <v>162019.20000000001</v>
+      </c>
+      <c r="J6">
+        <v>208394.1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>263050.59999999998</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6">
+        <v>71968.69</v>
+      </c>
+      <c r="N6">
+        <v>3.1768000000000001</v>
+      </c>
+      <c r="O6">
+        <v>9.5620999999999992</v>
+      </c>
+      <c r="R6">
+        <v>0.1053</v>
+      </c>
+      <c r="S6">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="T6">
+        <v>3.0836000000000001</v>
+      </c>
+      <c r="U6">
+        <v>5.4648000000000003</v>
+      </c>
+      <c r="V6">
+        <v>5.3705999999999996</v>
+      </c>
+      <c r="W6">
+        <v>0.14280000000000001</v>
+      </c>
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>-151874.79999999999</v>
+      </c>
+      <c r="C7">
+        <v>-117330.3</v>
+      </c>
+      <c r="D7">
+        <v>-98864.34</v>
+      </c>
+      <c r="E7" s="46">
+        <v>-86270.55</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-167668</v>
+      </c>
+      <c r="G7">
+        <v>303769.5</v>
+      </c>
+      <c r="H7">
+        <v>234680.6</v>
+      </c>
+      <c r="I7">
+        <v>197748.7</v>
+      </c>
+      <c r="J7" s="43">
+        <v>172561.1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>335356.09999999998</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="M7">
+        <v>177855.6</v>
+      </c>
+      <c r="N7">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="O7">
+        <v>4.1205999999999996</v>
+      </c>
+      <c r="P7">
+        <v>1.1295999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>6.1315</v>
+      </c>
+      <c r="R7">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="T7">
+        <v>8.5219000000000005</v>
+      </c>
+      <c r="U7">
+        <v>5.9484000000000004</v>
+      </c>
+      <c r="V7">
+        <v>1.3299000000000001</v>
+      </c>
+      <c r="W7">
+        <v>7.4399999999999994E-2</v>
+      </c>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-97721.84</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-96668.25</v>
+      </c>
+      <c r="D8" s="47">
+        <v>-91732.12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-114255.8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-132210</v>
+      </c>
+      <c r="G8" s="5">
+        <v>195465.7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>193358.5</v>
+      </c>
+      <c r="I8" s="44">
+        <v>183486.2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>228533.6</v>
+      </c>
+      <c r="K8" s="6">
+        <v>264441.90000000002</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="6"/>
+      <c r="M8" s="5">
+        <v>20816.03</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="P8" s="5">
+        <v>8.2385999999999999</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>13.714399999999999</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.1104</v>
+      </c>
+      <c r="S8" s="5">
+        <v>5.45E-2</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1.3498000000000001</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1.35E-2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>25.9312</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.11700000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1535,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB1F3D2-B500-4738-93FB-A5F3BE4B45CC}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,34 +2054,34 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+        <v>47</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="F1" s="9" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="F3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="J3" s="50" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -1596,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>21</v>
@@ -1605,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>21</v>
@@ -1615,254 +2108,288 @@
         <v>15</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="F5" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>35</v>
+      <c r="F5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="65" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L5" s="23"/>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <f>D5/(4*H5*H6*H9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>42</v>
+      <c r="B6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72"/>
+      <c r="F6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="38">
+      <c r="J6" s="66"/>
+      <c r="K6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="78">
         <f>D6*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
       <c r="F7" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="38">
+      <c r="J7" s="66"/>
+      <c r="K7" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="79">
         <f>D7*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" t="s">
-        <v>26</v>
+      <c r="A8" s="66"/>
+      <c r="B8" s="70" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
       <c r="F8" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="13">
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="38">
+      <c r="J8" s="66"/>
+      <c r="K8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="79">
         <f>D8*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="55"/>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="20"/>
-      <c r="F9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="31">
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="39">
+      <c r="J9" s="66"/>
+      <c r="K9" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="79">
         <f>D9*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="79">
+        <f>D10*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73"/>
+      <c r="B11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="20"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="79">
+        <f>D11*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="J10" s="53" t="s">
+      <c r="B12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="J12" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="39" t="e">
+        <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="38" t="e">
+        <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="13"/>
+      <c r="J14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="37">
+        <f>2*D14*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="37">
+        <f>2*D15*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="40" t="e">
-        <f>IF(G1="SIZE",M9/(2*D10),M7/(2*D10))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="39" t="e">
-        <f>IF(G1="SIZE",D11/(M8*2),D11/(M6*2))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="13"/>
-      <c r="J12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="38">
-        <f>2*D12*M5*H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="13"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="38">
-        <f>2*D13*M5*H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="56"/>
-      <c r="B14" s="19" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="41">
-        <f>2*D14*M5*H6</f>
+      <c r="M16" s="40">
+        <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
     </row>
@@ -1870,14 +2397,1637 @@
   <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J14"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C5F90-B158-4862-AA5B-6C31B78B8164}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="F3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20">
+        <v>71968.69</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4.9300000000000001E-9</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="36">
+        <f>D5/(4*H5*H6*H9)</f>
+        <v>47851.250298851177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72">
+        <v>3.1768000000000001</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="20">
+        <v>10</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="78">
+        <f>D6*M5</f>
+        <v>152013.85194939043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="13">
+        <v>9.5620999999999992</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13">
+        <v>603301446</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="79">
+        <f>D7*M5</f>
+        <v>457558.44048264477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
+      <c r="B8" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="13"/>
+      <c r="F8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13">
+        <f>(8732510/600502230)*(1066040/1226278)</f>
+        <v>1.2641803364126243E-2</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="79">
+        <f>D8*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="31">
+        <f>H7*H8</f>
+        <v>7626818.2496250272</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="79">
+        <f>D9*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13">
+        <v>0.1053</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="79">
+        <f>D10*M5</f>
+        <v>5038.7366564690292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73"/>
+      <c r="B11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="20">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="79">
+        <f>D11*M5</f>
+        <v>1894.9095118345067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3.0836000000000001</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="39">
+        <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
+        <v>0.16235154000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20">
+        <v>5.4648000000000003</v>
+      </c>
+      <c r="J13" s="73"/>
+      <c r="K13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="38">
+        <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
+        <v>0.10820304000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="13">
+        <v>5.3705999999999996</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="37">
+        <f>2*D14*M5*H6</f>
+        <v>5139798.4971002024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="J15" s="66"/>
+      <c r="K15" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="37">
+        <f>2*D15*M5*H6</f>
+        <v>136663.17085351897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="40">
+        <f>2*D16*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="A6:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7910FDE-95EA-4B4D-B1A0-05B30AE6AB51}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="F3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20">
+        <v>336964</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4.9300000000000001E-9</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="36">
+        <f>D5/(4*H5*H6*H9)</f>
+        <v>224043.93779714606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72">
+        <v>0.1497</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="20">
+        <v>10</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="78">
+        <f>D6*M5</f>
+        <v>33539.377488232763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="13">
+        <v>3.7086999999999999</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13">
+        <v>603301446</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="79">
+        <f>D7*M5</f>
+        <v>830911.75210827554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
+      <c r="B8" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="13"/>
+      <c r="F8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13">
+        <f>(8732510/600502230)*(1066040/1226278)</f>
+        <v>1.2641803364126243E-2</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="79">
+        <f>D8*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="31">
+        <f>H7*H8</f>
+        <v>7626818.2496250272</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="79">
+        <f>D9*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="79">
+        <f>D10*M5</f>
+        <v>11157.388102297873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73"/>
+      <c r="B11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="20">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="79">
+        <f>D11*M5</f>
+        <v>2262.8437717511752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="J12" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="39">
+        <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="38">
+        <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="13">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="37">
+        <f>2*D14*M5*H6</f>
+        <v>103956.38713787578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="37">
+        <f>2*D15*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="40">
+        <f>2*D16*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="A6:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CAB648-A05B-4C48-814E-9BD2F732E49B}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="F3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20">
+        <v>177855.6</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4.9300000000000001E-9</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="36">
+        <f>D5/(4*H5*H6*H9)</f>
+        <v>118254.38024024552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="20">
+        <v>10</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="78">
+        <f>D6*M5</f>
+        <v>93290.880571529691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="13">
+        <v>4.1205999999999996</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13">
+        <v>603301446</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="79">
+        <f>D7*M5</f>
+        <v>487278.99921795563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
+      <c r="B8" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="13">
+        <v>1.1295999999999999</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13">
+        <f>(8732510/600502230)*(1066040/1226278)</f>
+        <v>1.2641803364126243E-2</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="79">
+        <f>D8*M5</f>
+        <v>133580.14791938133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13">
+        <v>6.1315</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="31">
+        <f>H7*H8</f>
+        <v>7626818.2496250272</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="79">
+        <f>D9*M5</f>
+        <v>725076.73244306538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="79">
+        <f>D10*M5</f>
+        <v>6657.7216075258229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73"/>
+      <c r="B11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="20">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="79">
+        <f>D11*M5</f>
+        <v>2897.2323158860154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="13">
+        <v>8.5219000000000005</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="39">
+        <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
+        <v>0.23989148500000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20">
+        <v>5.9484000000000004</v>
+      </c>
+      <c r="J13" s="73"/>
+      <c r="K13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="38">
+        <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
+        <v>7.2867899999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="13">
+        <v>1.3299000000000001</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="37">
+        <f>2*D14*M5*H6</f>
+        <v>3145330.0056300503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="J15" s="66"/>
+      <c r="K15" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="37">
+        <f>2*D15*M5*H6</f>
+        <v>175962.51779748531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="40">
+        <f>2*D16*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="A6:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C638186B-6157-4ADF-97F4-54F4EBDD73BB}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="F3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20">
+        <v>20816.03</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4.9300000000000001E-9</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="36">
+        <f>D5/(4*H5*H6*H9)</f>
+        <v>13840.366717226547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="20">
+        <v>10</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="78">
+        <f>D6*M5</f>
+        <v>10214.190637313191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="13">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13">
+        <v>603301446</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="79">
+        <f>D7*M5</f>
+        <v>21812.41794634904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
+      <c r="B8" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="13">
+        <v>8.2385999999999999</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13">
+        <f>(8732510/600502230)*(1066040/1226278)</f>
+        <v>1.2641803364126243E-2</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="79">
+        <f>D8*M5</f>
+        <v>114025.24523654263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13">
+        <v>13.714399999999999</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="31">
+        <f>H7*H8</f>
+        <v>7626818.2496250272</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="79">
+        <f>D9*M5</f>
+        <v>189812.32530673174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13">
+        <v>0.1104</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="79">
+        <f>D10*M5</f>
+        <v>1527.9764855818107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73"/>
+      <c r="B11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="20">
+        <v>5.45E-2</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="79">
+        <f>D11*M5</f>
+        <v>754.29998608884682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1.3498000000000001</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="39">
+        <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
+        <v>5.5602311400000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="J13" s="73"/>
+      <c r="K13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="38">
+        <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
+        <v>6.2873666800000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="13">
+        <v>1.35E-2</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="37">
+        <f>2*D14*M5*H6</f>
+        <v>3736.8990136511679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13">
+        <v>25.9312</v>
+      </c>
+      <c r="J15" s="66"/>
+      <c r="K15" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="37">
+        <f>2*D15*M5*H6</f>
+        <v>7177946.3483549003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="40">
+        <f>2*D16*M5*H6</f>
+        <v>32386.458118310118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/2D/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1508" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{773F6229-E593-4300-82E3-6D6D25320ED4}"/>
+  <xr:revisionPtr revIDLastSave="1612" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E901664A-07DC-43CD-9A2C-B78FC70E3F61}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="79">
   <si>
     <t>Model</t>
   </si>
@@ -534,6 +534,18 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>UNCERTAINTY ESTIMATES</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>95% CONFIDENCE INTERVALS</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1134,6 +1146,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,6 +1180,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1157,12 +1191,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,7 +1201,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1183,22 +1216,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,7 +1509,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,37 +1532,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="51" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="55"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="72"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -2056,32 +2078,32 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="J3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2134,7 +2156,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="82" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2147,14 +2169,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="55"/>
       <c r="F6" s="33" t="s">
         <v>33</v>
       </c>
@@ -2164,19 +2186,19 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="83"/>
+      <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="78">
+      <c r="M6" s="60">
         <f>D6*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="4"/>
@@ -2190,19 +2212,19 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="79">
+      <c r="M7" s="61">
         <f>D7*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4"/>
@@ -2215,19 +2237,19 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="76" t="s">
+      <c r="J8" s="83"/>
+      <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="79">
+      <c r="M8" s="61">
         <f>D8*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="4"/>
@@ -2242,62 +2264,62 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="76" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="79">
+      <c r="M9" s="61">
         <f>D9*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="76" t="s">
+      <c r="J10" s="83"/>
+      <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="79">
+      <c r="M10" s="61">
         <f>D10*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="77" t="s">
+      <c r="J11" s="85"/>
+      <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="79">
+      <c r="M11" s="61">
         <f>D11*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="82" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -2312,7 +2334,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2320,7 +2342,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="73"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2333,18 +2355,18 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="56" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -2356,14 +2378,14 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="83"/>
+      <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -2375,13 +2397,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -2395,16 +2417,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J16"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2412,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C5F90-B158-4862-AA5B-6C31B78B8164}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,48 +2450,65 @@
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" customWidth="1"/>
     <col min="10" max="10" width="6.88671875" customWidth="1"/>
     <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="3.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="J3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="O3" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="S3" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="76"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -2499,8 +2538,28 @@
       <c r="M4" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="11"/>
+      <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
@@ -2522,7 +2581,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="82" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2533,16 +2592,40 @@
         <f>D5/(4*H5*H6*H9)</f>
         <v>47851.250298851177</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+      <c r="O5" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>3.22536E-3</v>
+      </c>
+      <c r="S5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="T5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="23"/>
+      <c r="V5" s="65">
+        <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
+        <v>47851.246009833034</v>
+      </c>
+      <c r="W5" s="67">
+        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
+        <v>47851.25458786932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72">
+      <c r="C6" s="52"/>
+      <c r="D6" s="55">
         <v>3.1768000000000001</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -2554,19 +2637,41 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="83"/>
+      <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="78">
+      <c r="M6" s="60">
         <f>D6*M5</f>
         <v>152013.85194939043</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
+      <c r="O6" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>2.0298999999999998E-3</v>
+      </c>
+      <c r="S6" s="83"/>
+      <c r="T6" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="28"/>
+      <c r="V6" s="62">
+        <f>(D6-2*Q6)*M5</f>
+        <v>151819.58544342715</v>
+      </c>
+      <c r="W6" s="37">
+        <f>(D6+2*Q6)*M5</f>
+        <v>152208.11845535369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="83"/>
+      <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="4"/>
@@ -2582,19 +2687,39 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="79">
+      <c r="M7" s="61">
         <f>D7*M5</f>
         <v>457558.44048264477</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="70" t="s">
+      <c r="O7" s="83"/>
+      <c r="P7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>1.9669900000000001E-3</v>
+      </c>
+      <c r="S7" s="83"/>
+      <c r="T7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="62">
+        <f>(D7-2*Q7)*M5</f>
+        <v>457370.19462099415</v>
+      </c>
+      <c r="W7" s="37">
+        <f>(D7+2*Q7)*M5</f>
+        <v>457746.68634429545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="83"/>
+      <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4"/>
@@ -2607,19 +2732,31 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="76" t="s">
+      <c r="J8" s="83"/>
+      <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="79">
+      <c r="M8" s="61">
         <f>D8*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
+      <c r="O8" s="83"/>
+      <c r="P8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="37"/>
+    </row>
+    <row r="9" spans="1:23" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="83"/>
+      <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="4"/>
@@ -2634,59 +2771,111 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="76" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="79">
+      <c r="M9" s="61">
         <f>D9*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70" t="s">
+      <c r="O9" s="83"/>
+      <c r="P9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="37"/>
+    </row>
+    <row r="10" spans="1:23" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="83"/>
+      <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13">
         <v>0.1053</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="76" t="s">
+      <c r="J10" s="83"/>
+      <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="79">
+      <c r="M10" s="61">
         <f>D10*M5</f>
         <v>5038.7366564690292</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73"/>
-      <c r="B11" s="71" t="s">
+      <c r="O10" s="83"/>
+      <c r="P10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>8.1761100000000003E-3</v>
+      </c>
+      <c r="S10" s="83"/>
+      <c r="T10" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="62">
+        <f>(D10-2*Q10)*M5</f>
+        <v>4256.262484307149</v>
+      </c>
+      <c r="W10" s="37">
+        <f>(D10+2*Q10)*M5</f>
+        <v>5821.2108286309094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="85"/>
+      <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="77" t="s">
+      <c r="J11" s="85"/>
+      <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="79">
+      <c r="M11" s="61">
         <f>D11*M5</f>
         <v>1894.9095118345067</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+      <c r="O11" s="85"/>
+      <c r="P11" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>1.028575E-2</v>
+      </c>
+      <c r="S11" s="85"/>
+      <c r="T11" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="26"/>
+      <c r="V11" s="66">
+        <f>(D11-2*Q11)*M5</f>
+        <v>910.53751631168984</v>
+      </c>
+      <c r="W11" s="38">
+        <f>(D11+2*Q11)*M5</f>
+        <v>2879.2815073573238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2695,7 +2884,7 @@
       <c r="D12" s="13">
         <v>3.0836000000000001</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="82" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -2708,9 +2897,35 @@
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
         <v>0.16235154000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="O12" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>5.9988899999999998E-3</v>
+      </c>
+      <c r="S12" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="62">
+        <f>IF(G1="M",((D12-2*Q12)*M8)/(2*M5),((D12-2*Q12)*M10)/(2*M5))</f>
+        <v>0.161719856883</v>
+      </c>
+      <c r="W12" s="37">
+        <f>IF(G1="M",((D12+2*Q12)*M8)/(2*M5),((D12+2*Q12)*M10)/(2*M5))</f>
+        <v>0.16298322311700003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="81"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2720,7 +2935,7 @@
       <c r="D13" s="20">
         <v>5.4648000000000003</v>
       </c>
-      <c r="J13" s="73"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2731,22 +2946,44 @@
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
         <v>0.10820304000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="O13" s="85"/>
+      <c r="P13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>1.0813440000000001E-2</v>
+      </c>
+      <c r="S13" s="85"/>
+      <c r="T13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="66">
+        <f>IF(G1="M",((D13-2*Q13)*M9)/(M5*2),((D13-2*Q13)*M11)/(M5*2))</f>
+        <v>0.10777482777600002</v>
+      </c>
+      <c r="W13" s="38">
+        <f>IF(G1="M",((D13+2*Q13)*M9)/(M5*2),((D13+2*Q13)*M11)/(M5*2))</f>
+        <v>0.10863125222400001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13">
         <v>5.3705999999999996</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="56" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -2756,18 +2993,44 @@
         <f>2*D14*M5*H6</f>
         <v>5139798.4971002024</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="64" t="s">
+      <c r="O14" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>4.9685500000000004E-3</v>
+      </c>
+      <c r="S14" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="62">
+        <f>2*(D14-2*Q14)*M5*H6</f>
+        <v>5130288.443913308</v>
+      </c>
+      <c r="W14" s="37">
+        <f>2*(D14+2*Q14)*M5*H6</f>
+        <v>5149308.5502870968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="83"/>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="83"/>
+      <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -2777,15 +3040,37 @@
         <f>2*D15*M5*H6</f>
         <v>136663.17085351897</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
+      <c r="O15" s="83"/>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>8.6076499999999997E-3</v>
+      </c>
+      <c r="S15" s="83"/>
+      <c r="T15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="62">
+        <f>2*(D15-2*Q15)*M5*H6</f>
+        <v>120187.69826812274</v>
+      </c>
+      <c r="W15" s="37">
+        <f>2*(D15+2*Q15)*M5*H6</f>
+        <v>153138.6434389152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="84"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -2796,9 +3081,31 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
+      <c r="O16" s="84"/>
+      <c r="P16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="64"/>
+      <c r="W16" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="O6:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S5:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="A14:A16"/>
@@ -2844,34 +3151,34 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="J3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2926,7 +3233,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="82" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2939,14 +3246,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72">
+      <c r="C6" s="52"/>
+      <c r="D6" s="55">
         <v>0.1497</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -2958,19 +3265,19 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="83"/>
+      <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="78">
+      <c r="M6" s="60">
         <f>D6*M5</f>
         <v>33539.377488232763</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="4"/>
@@ -2986,19 +3293,19 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="79">
+      <c r="M7" s="61">
         <f>D7*M5</f>
         <v>830911.75210827554</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4"/>
@@ -3011,19 +3318,19 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="76" t="s">
+      <c r="J8" s="83"/>
+      <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="79">
+      <c r="M8" s="61">
         <f>D8*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="4"/>
@@ -3038,66 +3345,66 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="76" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="79">
+      <c r="M9" s="61">
         <f>D9*M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="76" t="s">
+      <c r="J10" s="83"/>
+      <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="79">
+      <c r="M10" s="61">
         <f>D10*M5</f>
         <v>11157.388102297873</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20">
         <v>1.01E-2</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="77" t="s">
+      <c r="J11" s="85"/>
+      <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="79">
+      <c r="M11" s="61">
         <f>D11*M5</f>
         <v>2262.8437717511752</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="82" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3112,7 +3419,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3120,7 +3427,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="73"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3133,20 +3440,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="56" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -3158,14 +3465,14 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="83"/>
+      <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -3177,13 +3484,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3242,34 +3549,34 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="J3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -3324,7 +3631,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="82" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -3337,14 +3644,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72">
+      <c r="C6" s="52"/>
+      <c r="D6" s="55">
         <v>0.78890000000000005</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -3356,19 +3663,19 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="83"/>
+      <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="78">
+      <c r="M6" s="60">
         <f>D6*M5</f>
         <v>93290.880571529691</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="4"/>
@@ -3384,19 +3691,19 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="79">
+      <c r="M7" s="61">
         <f>D7*M5</f>
         <v>487278.99921795563</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4"/>
@@ -3411,19 +3718,19 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="76" t="s">
+      <c r="J8" s="83"/>
+      <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="79">
+      <c r="M8" s="61">
         <f>D8*M5</f>
         <v>133580.14791938133</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="4"/>
@@ -3440,59 +3747,59 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="76" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="79">
+      <c r="M9" s="61">
         <f>D9*M5</f>
         <v>725076.73244306538</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="76" t="s">
+      <c r="J10" s="83"/>
+      <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="79">
+      <c r="M10" s="61">
         <f>D10*M5</f>
         <v>6657.7216075258229</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="77" t="s">
+      <c r="J11" s="85"/>
+      <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="79">
+      <c r="M11" s="61">
         <f>D11*M5</f>
         <v>2897.2323158860154</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3501,7 +3808,7 @@
       <c r="D12" s="13">
         <v>8.5219000000000005</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="82" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3516,7 +3823,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3526,7 +3833,7 @@
       <c r="D13" s="20">
         <v>5.9484000000000004</v>
       </c>
-      <c r="J13" s="73"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3539,20 +3846,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13">
         <v>1.3299000000000001</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="56" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -3564,16 +3871,16 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="83"/>
+      <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -3585,13 +3892,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3624,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C638186B-6157-4ADF-97F4-54F4EBDD73BB}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -3650,11 +3957,11 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
@@ -3664,23 +3971,23 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="J3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -3735,7 +4042,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="82" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -3748,14 +4055,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72">
+      <c r="C6" s="52"/>
+      <c r="D6" s="55">
         <v>0.73799999999999999</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -3767,19 +4074,19 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="83"/>
+      <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="78">
+      <c r="M6" s="60">
         <f>D6*M5</f>
         <v>10214.190637313191</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="4"/>
@@ -3795,19 +4102,19 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="79">
+      <c r="M7" s="61">
         <f>D7*M5</f>
         <v>21812.41794634904</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4"/>
@@ -3822,19 +4129,19 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="76" t="s">
+      <c r="J8" s="83"/>
+      <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="79">
+      <c r="M8" s="61">
         <f>D8*M5</f>
         <v>114025.24523654263</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="4"/>
@@ -3851,59 +4158,59 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="76" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="79">
+      <c r="M9" s="61">
         <f>D9*M5</f>
         <v>189812.32530673174</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13">
         <v>0.1104</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="76" t="s">
+      <c r="J10" s="83"/>
+      <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="79">
+      <c r="M10" s="61">
         <f>D10*M5</f>
         <v>1527.9764855818107</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20">
         <v>5.45E-2</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="77" t="s">
+      <c r="J11" s="85"/>
+      <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="79">
+      <c r="M11" s="61">
         <f>D11*M5</f>
         <v>754.29998608884682</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3912,7 +4219,7 @@
       <c r="D12" s="13">
         <v>1.3498000000000001</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="82" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3927,7 +4234,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3937,7 +4244,7 @@
       <c r="D13" s="20">
         <v>0.91690000000000005</v>
       </c>
-      <c r="J13" s="73"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3950,20 +4257,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13">
         <v>1.35E-2</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="56" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -3975,16 +4282,16 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13">
         <v>25.9312</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="83"/>
+      <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -3996,7 +4303,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -4004,7 +4311,7 @@
       <c r="D16" s="15">
         <v>0.11700000000000001</v>
       </c>
-      <c r="J16" s="67"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>

--- a/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1612" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E901664A-07DC-43CD-9A2C-B78FC70E3F61}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1800" yWindow="384" windowWidth="16224" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
@@ -1180,6 +1180,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1206,18 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2078,32 +2078,32 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="74" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="F3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2156,7 +2156,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="73" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -2186,7 +2186,7 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="83"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="83"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
@@ -2237,7 +2237,7 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
@@ -2264,7 +2264,7 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
@@ -2275,13 +2275,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
-      <c r="J10" s="83"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
@@ -2292,13 +2292,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20"/>
-      <c r="J11" s="85"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
@@ -2309,7 +2309,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="84" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -2319,7 +2319,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="73" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -2334,7 +2334,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="85"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2355,7 +2355,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="56" t="s">
@@ -2378,13 +2378,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="74"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="83"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
@@ -2397,13 +2397,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="84"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -2417,16 +2417,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2437,7 +2437,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2467,46 +2467,46 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="74" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="F3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
       <c r="O3" s="86" t="s">
         <v>75</v>
       </c>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
-      <c r="S3" s="74" t="s">
+      <c r="S3" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="76"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="80"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2581,7 +2581,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="73" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2601,7 +2601,7 @@
       <c r="Q5" s="20">
         <v>3.22536E-3</v>
       </c>
-      <c r="S5" s="82" t="s">
+      <c r="S5" s="73" t="s">
         <v>16</v>
       </c>
       <c r="T5" s="22" t="s">
@@ -2618,7 +2618,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -2637,7 +2637,7 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="83"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
@@ -2646,7 +2646,7 @@
         <f>D6*M5</f>
         <v>152013.85194939043</v>
       </c>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="73" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="51" t="s">
@@ -2655,7 +2655,7 @@
       <c r="Q6" s="55">
         <v>2.0298999999999998E-3</v>
       </c>
-      <c r="S6" s="83"/>
+      <c r="S6" s="74"/>
       <c r="T6" s="57" t="s">
         <v>67</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="83"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
@@ -2696,14 +2696,14 @@
         <f>D7*M5</f>
         <v>457558.44048264477</v>
       </c>
-      <c r="O7" s="83"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="13">
         <v>1.9669900000000001E-3</v>
       </c>
-      <c r="S7" s="83"/>
+      <c r="S7" s="74"/>
       <c r="T7" s="58" t="s">
         <v>68</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
@@ -2732,7 +2732,7 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
@@ -2741,12 +2741,12 @@
         <f>D8*M5</f>
         <v>0</v>
       </c>
-      <c r="O8" s="83"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="53" t="s">
         <v>69</v>
       </c>
       <c r="Q8" s="13"/>
-      <c r="S8" s="83"/>
+      <c r="S8" s="74"/>
       <c r="T8" s="58" t="s">
         <v>69</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
@@ -2771,7 +2771,7 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
@@ -2780,12 +2780,12 @@
         <f>D9*M5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="83"/>
+      <c r="O9" s="74"/>
       <c r="P9" s="53" t="s">
         <v>70</v>
       </c>
       <c r="Q9" s="13"/>
-      <c r="S9" s="83"/>
+      <c r="S9" s="74"/>
       <c r="T9" s="58" t="s">
         <v>70</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="D10" s="13">
         <v>0.1053</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
@@ -2811,14 +2811,14 @@
         <f>D10*M5</f>
         <v>5038.7366564690292</v>
       </c>
-      <c r="O10" s="83"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="53" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="13">
         <v>8.1761100000000003E-3</v>
       </c>
-      <c r="S10" s="83"/>
+      <c r="S10" s="74"/>
       <c r="T10" s="58" t="s">
         <v>71</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="D11" s="20">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="J11" s="85"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
@@ -2850,14 +2850,14 @@
         <f>D11*M5</f>
         <v>1894.9095118345067</v>
       </c>
-      <c r="O11" s="85"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="Q11" s="20">
         <v>1.028575E-2</v>
       </c>
-      <c r="S11" s="85"/>
+      <c r="S11" s="76"/>
       <c r="T11" s="59" t="s">
         <v>72</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="84" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -2884,7 +2884,7 @@
       <c r="D12" s="13">
         <v>3.0836000000000001</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="73" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -2897,7 +2897,7 @@
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
         <v>0.16235154000000002</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="74" t="s">
         <v>17</v>
       </c>
       <c r="P12" t="s">
@@ -2906,7 +2906,7 @@
       <c r="Q12" s="13">
         <v>5.9988899999999998E-3</v>
       </c>
-      <c r="S12" s="82" t="s">
+      <c r="S12" s="73" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="27" t="s">
@@ -2925,7 +2925,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="D13" s="20">
         <v>5.4648000000000003</v>
       </c>
-      <c r="J13" s="85"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2946,14 +2946,14 @@
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
         <v>0.10820304000000001</v>
       </c>
-      <c r="O13" s="85"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="20">
         <v>1.0813440000000001E-2</v>
       </c>
-      <c r="S13" s="85"/>
+      <c r="S13" s="76"/>
       <c r="T13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -2980,7 +2980,7 @@
       <c r="D14" s="13">
         <v>5.3705999999999996</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="56" t="s">
@@ -2993,7 +2993,7 @@
         <f>2*D14*M5*H6</f>
         <v>5139798.4971002024</v>
       </c>
-      <c r="O14" s="82" t="s">
+      <c r="O14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="P14" t="s">
@@ -3002,7 +3002,7 @@
       <c r="Q14" s="13">
         <v>4.9685500000000004E-3</v>
       </c>
-      <c r="S14" s="82" t="s">
+      <c r="S14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="T14" s="56" t="s">
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="74"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="D15" s="13">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J15" s="83"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
@@ -3040,14 +3040,14 @@
         <f>2*D15*M5*H6</f>
         <v>136663.17085351897</v>
       </c>
-      <c r="O15" s="83"/>
+      <c r="O15" s="74"/>
       <c r="P15" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="13">
         <v>8.6076499999999997E-3</v>
       </c>
-      <c r="S15" s="83"/>
+      <c r="S15" s="74"/>
       <c r="T15" s="56" t="s">
         <v>45</v>
       </c>
@@ -3064,13 +3064,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="84"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3081,12 +3081,12 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O16" s="84"/>
+      <c r="O16" s="75"/>
       <c r="P16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="S16" s="84"/>
+      <c r="S16" s="75"/>
       <c r="T16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3098,14 +3098,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O6:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S5:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="A14:A16"/>
@@ -3116,6 +3108,14 @@
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="A6:A11"/>
+    <mergeCell ref="O6:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S5:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3151,34 +3151,34 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="74" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="F3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -3233,7 +3233,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="73" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -3246,7 +3246,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -3265,7 +3265,7 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="83"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="83"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
@@ -3304,7 +3304,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
@@ -3318,7 +3318,7 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
@@ -3345,7 +3345,7 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="D10" s="13">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="D11" s="20">
         <v>1.01E-2</v>
       </c>
-      <c r="J11" s="85"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
@@ -3394,7 +3394,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="84" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -3404,7 +3404,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="73" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3419,7 +3419,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="85"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3440,7 +3440,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3450,7 +3450,7 @@
       <c r="D14" s="13">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="56" t="s">
@@ -3465,13 +3465,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="74"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="83"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
@@ -3484,13 +3484,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="84"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3549,34 +3549,34 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="74" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="F3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -3631,7 +3631,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="73" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -3644,7 +3644,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -3663,7 +3663,7 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="83"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="83"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
@@ -3702,7 +3702,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
@@ -3718,7 +3718,7 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
@@ -3747,7 +3747,7 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
@@ -3758,7 +3758,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="D10" s="13">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
@@ -3777,7 +3777,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="D11" s="20">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="J11" s="85"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
@@ -3796,7 +3796,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="84" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -3808,7 +3808,7 @@
       <c r="D12" s="13">
         <v>8.5219000000000005</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="73" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3823,7 +3823,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="D13" s="20">
         <v>5.9484000000000004</v>
       </c>
-      <c r="J13" s="85"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3856,7 +3856,7 @@
       <c r="D14" s="13">
         <v>1.3299000000000001</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="56" t="s">
@@ -3871,7 +3871,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="74"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="D15" s="13">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="J15" s="83"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
@@ -3892,13 +3892,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="84"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3957,11 +3957,11 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
@@ -3971,23 +3971,23 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="74" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="F3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -4042,7 +4042,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="73" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -4055,7 +4055,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -4074,7 +4074,7 @@
       <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="83"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="57" t="s">
         <v>67</v>
       </c>
@@ -4085,7 +4085,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="83"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="58" t="s">
         <v>68</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
@@ -4129,7 +4129,7 @@
         <f>(8732510/600502230)*(1066040/1226278)</f>
         <v>1.2641803364126243E-2</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="58" t="s">
         <v>69</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
@@ -4158,7 +4158,7 @@
         <f>H7*H8</f>
         <v>7626818.2496250272</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="58" t="s">
         <v>70</v>
       </c>
@@ -4169,7 +4169,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="53" t="s">
         <v>71</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="D10" s="13">
         <v>0.1104</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="58" t="s">
         <v>71</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="54" t="s">
         <v>72</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="D11" s="20">
         <v>5.45E-2</v>
       </c>
-      <c r="J11" s="85"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="59" t="s">
         <v>72</v>
       </c>
@@ -4207,7 +4207,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="84" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -4219,7 +4219,7 @@
       <c r="D12" s="13">
         <v>1.3498000000000001</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="73" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="D13" s="20">
         <v>0.91690000000000005</v>
       </c>
-      <c r="J13" s="85"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -4267,7 +4267,7 @@
       <c r="D14" s="13">
         <v>1.35E-2</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="73" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="56" t="s">
@@ -4282,7 +4282,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="74"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="D15" s="13">
         <v>25.9312</v>
       </c>
-      <c r="J15" s="83"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
@@ -4303,7 +4303,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="D16" s="15">
         <v>0.11700000000000001</v>
       </c>
-      <c r="J16" s="84"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>

--- a/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/2D/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1612" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E901664A-07DC-43CD-9A2C-B78FC70E3F61}"/>
+  <xr:revisionPtr revIDLastSave="1845" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F554A0-9981-4CF5-AA93-41EEBD9163CD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1800" yWindow="384" windowWidth="16224" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23520" yWindow="-3870" windowWidth="19470" windowHeight="14175" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
     <sheet name="calc templ" sheetId="8" r:id="rId2"/>
-    <sheet name="04 calc" sheetId="15" r:id="rId3"/>
-    <sheet name="01 calc" sheetId="16" r:id="rId4"/>
-    <sheet name="05 calc" sheetId="17" r:id="rId5"/>
-    <sheet name="06 calc" sheetId="19" r:id="rId6"/>
+    <sheet name="Model 4" sheetId="22" r:id="rId3"/>
+    <sheet name="Model 1" sheetId="23" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="80">
   <si>
     <t>Model</t>
   </si>
@@ -416,24 +411,6 @@
     <t>06.sec_contact_bottle_schange_thr_epoch</t>
   </si>
   <si>
-    <t>Run 1 Rep 12</t>
-  </si>
-  <si>
-    <t>Run 2 Rep 59</t>
-  </si>
-  <si>
-    <t>Run 3 Rep 73</t>
-  </si>
-  <si>
-    <t>Run 4 Rep 67</t>
-  </si>
-  <si>
-    <t>Run 3 Rep 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run 4 </t>
-  </si>
-  <si>
     <r>
       <t>nu</t>
     </r>
@@ -533,9 +510,6 @@
     <t>MIGR PERIOD</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>UNCERTAINTY ESTIMATES</t>
   </si>
   <si>
@@ -546,6 +520,30 @@
   </si>
   <si>
     <t>95% CONFIDENCE INTERVALS</t>
+  </si>
+  <si>
+    <t>Run 4, Rep 4</t>
+  </si>
+  <si>
+    <t>Run 1, Rep 89</t>
+  </si>
+  <si>
+    <t>Run 5, Rep 78</t>
+  </si>
+  <si>
+    <t>Run 3, Rep 98</t>
+  </si>
+  <si>
+    <t>Run 3, Rep 5</t>
+  </si>
+  <si>
+    <t>Run 2, Rep 56</t>
+  </si>
+  <si>
+    <t>04 - Secondary Contact with Exp. Size Change</t>
+  </si>
+  <si>
+    <t>01 - Exponential Size Change</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1138,13 +1136,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1165,6 +1160,7 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,11 +1185,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,6 +1196,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1219,9 +1218,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,10 +1233,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1508,63 +1500,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.88671875" customWidth="1"/>
+    <col min="22" max="22" width="6.90625" customWidth="1"/>
+    <col min="23" max="23" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="68" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="72"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="70"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1634,407 +1628,407 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="48">
-        <v>-100346.1</v>
+      <c r="B3">
+        <v>-179412.8</v>
       </c>
       <c r="C3">
-        <v>-119954.2</v>
+        <v>-158500.6</v>
       </c>
       <c r="D3">
-        <v>-119405.3</v>
-      </c>
-      <c r="E3">
-        <v>-102060.1</v>
+        <v>-183718.1</v>
+      </c>
+      <c r="E3" s="44">
+        <v>-155089.20000000001</v>
       </c>
       <c r="F3" s="4">
-        <v>-108924.9</v>
-      </c>
-      <c r="G3" s="43">
-        <v>200702.2</v>
+        <v>-156167.5</v>
+      </c>
+      <c r="G3">
+        <v>358835.7</v>
       </c>
       <c r="H3">
-        <v>239918.4</v>
+        <v>317011.20000000001</v>
       </c>
       <c r="I3">
-        <v>238820.6</v>
-      </c>
-      <c r="J3">
-        <v>204130.2</v>
+        <v>367446.3</v>
+      </c>
+      <c r="J3" s="44">
+        <v>310188.3</v>
       </c>
       <c r="K3" s="4">
-        <v>217859.7</v>
+        <v>312344.90000000002</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M3">
-        <v>336964</v>
+        <v>534487.1</v>
       </c>
       <c r="N3">
-        <v>0.1497</v>
+        <v>3.5617000000000001</v>
       </c>
       <c r="O3">
-        <v>3.7086999999999999</v>
+        <v>27.1096</v>
       </c>
       <c r="R3">
-        <v>4.9799999999999997E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="S3">
-        <v>1.01E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="V3">
-        <v>2.3199999999999998E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
-        <v>-149144.5</v>
-      </c>
-      <c r="C4" s="50">
-        <v>-118835.8</v>
+      <c r="B4" s="46">
+        <v>-168961.8</v>
+      </c>
+      <c r="C4">
+        <v>-232153.7</v>
       </c>
       <c r="D4">
-        <v>-120897.2</v>
+        <v>-240410.9</v>
       </c>
       <c r="E4">
-        <v>-175540.5</v>
+        <v>-197809.2</v>
       </c>
       <c r="F4" s="4">
-        <v>-189346.5</v>
-      </c>
-      <c r="G4">
-        <v>298304.90000000002</v>
-      </c>
-      <c r="H4" s="43">
-        <v>237687.7</v>
+        <v>-187335</v>
+      </c>
+      <c r="G4" s="46">
+        <v>337939.6</v>
+      </c>
+      <c r="H4">
+        <v>464323.4</v>
       </c>
       <c r="I4">
-        <v>241810.4</v>
+        <v>480837.9</v>
       </c>
       <c r="J4">
-        <v>351097</v>
+        <v>395634.5</v>
       </c>
       <c r="K4" s="4">
-        <v>378708.9</v>
+        <v>374686</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M4">
-        <v>315612.09999999998</v>
+        <v>489984</v>
       </c>
       <c r="N4">
-        <v>0.50529999999999997</v>
+        <v>1.3945000000000001</v>
       </c>
       <c r="O4">
-        <v>0.3014</v>
+        <v>1.2319</v>
       </c>
       <c r="P4">
-        <v>8.3599999999999994E-2</v>
+        <v>4.4062000000000001</v>
       </c>
       <c r="Q4">
-        <v>1.0822000000000001</v>
+        <v>23.807200000000002</v>
       </c>
       <c r="R4">
-        <v>0.17249999999999999</v>
+        <v>4.87E-2</v>
       </c>
       <c r="S4">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="V4">
         <v>2.7E-2</v>
       </c>
-      <c r="V4">
-        <v>2.6700000000000002E-2</v>
-      </c>
       <c r="W4">
-        <v>3.2099999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B5">
-        <v>-248327.6</v>
+        <v>-394399.8</v>
       </c>
       <c r="C5">
-        <v>-1213186</v>
+        <v>-611707.9</v>
       </c>
       <c r="D5">
-        <v>-411871.9</v>
-      </c>
-      <c r="E5" s="49">
-        <v>-228936.9</v>
-      </c>
-      <c r="F5" s="4">
-        <v>-1124581</v>
+        <v>-345350.6</v>
+      </c>
+      <c r="E5">
+        <v>-286167.7</v>
+      </c>
+      <c r="F5" s="65">
+        <v>-227180.9</v>
       </c>
       <c r="G5">
-        <v>496673.2</v>
+        <v>788817.6</v>
       </c>
       <c r="H5">
-        <v>2426391</v>
+        <v>1223434</v>
       </c>
       <c r="I5">
-        <v>823761.9</v>
-      </c>
-      <c r="J5" s="43">
-        <v>457891.8</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2249180</v>
+        <v>690719.2</v>
+      </c>
+      <c r="J5">
+        <v>572353.5</v>
+      </c>
+      <c r="K5" s="65">
+        <v>454379.8</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>219902.3</v>
+        <v>436988</v>
       </c>
       <c r="N5">
-        <v>0.72989999999999999</v>
+        <v>1.7573000000000001</v>
       </c>
       <c r="O5">
-        <v>21.985199999999999</v>
+        <v>3.7755999999999998</v>
       </c>
       <c r="P5">
-        <v>2.8016000000000001</v>
+        <v>2.9474</v>
       </c>
       <c r="Q5">
-        <v>0.32029999999999997</v>
+        <v>1.4311</v>
       </c>
       <c r="R5">
-        <v>0.1149</v>
+        <v>6.2E-2</v>
       </c>
       <c r="S5">
-        <v>0.96279999999999999</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="V5">
-        <v>8.2699999999999996E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="W5">
-        <v>7.6300000000000007E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="X5" s="4">
-        <v>6.0400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>7.7100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B6">
-        <v>-93094.8</v>
+        <v>-165920.29999999999</v>
       </c>
       <c r="C6">
-        <v>-86262.81</v>
-      </c>
-      <c r="D6" s="45">
-        <v>-81001.600000000006</v>
+        <v>-267223.2</v>
+      </c>
+      <c r="D6" s="43">
+        <v>-140382.20000000001</v>
       </c>
       <c r="E6">
-        <v>-104189.1</v>
+        <v>-227363.8</v>
       </c>
       <c r="F6" s="4">
-        <v>-131517.29999999999</v>
+        <v>-182429.2</v>
       </c>
       <c r="G6">
-        <v>186205.6</v>
+        <v>331856.7</v>
       </c>
       <c r="H6">
-        <v>172541.6</v>
+        <v>534462.30000000005</v>
       </c>
       <c r="I6" s="43">
-        <v>162019.20000000001</v>
+        <v>280780.40000000002</v>
       </c>
       <c r="J6">
-        <v>208394.1</v>
+        <v>454743.5</v>
       </c>
       <c r="K6" s="4">
-        <v>263050.59999999998</v>
+        <v>364874.4</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>71968.69</v>
+        <v>404517.5</v>
       </c>
       <c r="N6">
-        <v>3.1768000000000001</v>
+        <v>4.3525</v>
       </c>
       <c r="O6">
-        <v>9.5620999999999992</v>
+        <v>26.373100000000001</v>
       </c>
       <c r="R6">
-        <v>0.1053</v>
+        <v>3.56E-2</v>
       </c>
       <c r="S6">
-        <v>3.9600000000000003E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="T6">
-        <v>3.0836000000000001</v>
+        <v>10.747199999999999</v>
       </c>
       <c r="U6">
-        <v>5.4648000000000003</v>
+        <v>1.0565</v>
       </c>
       <c r="V6">
-        <v>5.3705999999999996</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="W6">
-        <v>0.14280000000000001</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B7">
-        <v>-151874.79999999999</v>
+        <v>-238670.9</v>
       </c>
       <c r="C7">
-        <v>-117330.3</v>
-      </c>
-      <c r="D7">
-        <v>-98864.34</v>
-      </c>
-      <c r="E7" s="46">
-        <v>-86270.55</v>
+        <v>-249030.1</v>
+      </c>
+      <c r="D7" s="47">
+        <v>-225817</v>
+      </c>
+      <c r="E7">
+        <v>-294080.8</v>
       </c>
       <c r="F7" s="4">
-        <v>-167668</v>
+        <v>-259215.1</v>
       </c>
       <c r="G7">
-        <v>303769.5</v>
+        <v>477361.7</v>
       </c>
       <c r="H7">
-        <v>234680.6</v>
-      </c>
-      <c r="I7">
-        <v>197748.7</v>
-      </c>
-      <c r="J7" s="43">
-        <v>172561.1</v>
+        <v>498080.2</v>
+      </c>
+      <c r="I7" s="47">
+        <v>451654</v>
+      </c>
+      <c r="J7">
+        <v>588181.5</v>
       </c>
       <c r="K7" s="4">
-        <v>335356.09999999998</v>
+        <v>518450.1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M7">
-        <v>177855.6</v>
+        <v>423782.2</v>
       </c>
       <c r="N7">
-        <v>0.78890000000000005</v>
+        <v>0.58450000000000002</v>
       </c>
       <c r="O7">
-        <v>4.1205999999999996</v>
+        <v>1.2786999999999999</v>
       </c>
       <c r="P7">
-        <v>1.1295999999999999</v>
+        <v>0.2263</v>
       </c>
       <c r="Q7">
-        <v>6.1315</v>
+        <v>7.85</v>
       </c>
       <c r="R7">
-        <v>5.6300000000000003E-2</v>
+        <v>0.18690000000000001</v>
       </c>
       <c r="S7">
-        <v>2.4500000000000001E-2</v>
+        <v>0.13830000000000001</v>
       </c>
       <c r="T7">
-        <v>8.5219000000000005</v>
+        <v>4.0354999999999999</v>
       </c>
       <c r="U7">
-        <v>5.9484000000000004</v>
+        <v>0.30580000000000002</v>
       </c>
       <c r="V7">
-        <v>1.3299000000000001</v>
+        <v>0.2626</v>
       </c>
       <c r="W7">
-        <v>7.4399999999999994E-2</v>
+        <v>0.36620000000000003</v>
       </c>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="5">
-        <v>-97721.84</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-96668.25</v>
-      </c>
-      <c r="D8" s="47">
-        <v>-91732.12</v>
+        <v>-191333.4</v>
+      </c>
+      <c r="C8" s="45">
+        <v>-158301.20000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-199232.2</v>
       </c>
       <c r="E8" s="5">
-        <v>-114255.8</v>
+        <v>-164625.9</v>
       </c>
       <c r="F8" s="6">
-        <v>-132210</v>
+        <v>-177695.2</v>
       </c>
       <c r="G8" s="5">
-        <v>195465.7</v>
-      </c>
-      <c r="H8" s="5">
-        <v>193358.5</v>
-      </c>
-      <c r="I8" s="44">
-        <v>183486.2</v>
+        <v>382688.7</v>
+      </c>
+      <c r="H8" s="45">
+        <v>316624.3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>398486.4</v>
       </c>
       <c r="J8" s="5">
-        <v>228533.6</v>
+        <v>329273.90000000002</v>
       </c>
       <c r="K8" s="6">
-        <v>264441.90000000002</v>
+        <v>355412.4</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M8" s="5">
-        <v>20816.03</v>
+        <v>63720.02</v>
       </c>
       <c r="N8" s="5">
-        <v>0.73799999999999999</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="O8" s="5">
-        <v>1.5760000000000001</v>
+        <v>1.3782000000000001</v>
       </c>
       <c r="P8" s="5">
-        <v>8.2385999999999999</v>
+        <v>10.0442</v>
       </c>
       <c r="Q8" s="5">
-        <v>13.714399999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="R8" s="5">
-        <v>0.1104</v>
+        <v>0.1159</v>
       </c>
       <c r="S8" s="5">
-        <v>5.45E-2</v>
+        <v>0.24349999999999999</v>
       </c>
       <c r="T8" s="5">
-        <v>1.3498000000000001</v>
+        <v>0.2074</v>
       </c>
       <c r="U8" s="5">
-        <v>0.91690000000000005</v>
+        <v>4.1475999999999997</v>
       </c>
       <c r="V8" s="5">
-        <v>1.35E-2</v>
+        <v>1.9921</v>
       </c>
       <c r="W8" s="5">
-        <v>25.9312</v>
+        <v>13.0403</v>
       </c>
       <c r="X8" s="6">
-        <v>0.11700000000000001</v>
+        <v>0.1351</v>
       </c>
     </row>
   </sheetData>
@@ -2050,62 +2044,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB1F3D2-B500-4738-93FB-A5F3BE4B45CC}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.36328125" customWidth="1"/>
+    <col min="18" max="18" width="4.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="F1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="F3" s="78" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="F3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="J3" s="78" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="J3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="O3" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="S3" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -2135,8 +2144,28 @@
       <c r="M4" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="11"/>
+      <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
@@ -2156,7 +2185,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="71" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2167,16 +2196,38 @@
         <f>D5/(4*H5*H6*H9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="O5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55"/>
+      <c r="T5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="23"/>
+      <c r="V5" s="62">
+        <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="64">
+        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="52"/>
       <c r="F6" s="33" t="s">
         <v>33</v>
       </c>
@@ -2184,22 +2235,42 @@
         <v>38</v>
       </c>
       <c r="H6" s="20">
-        <v>10</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="57" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="72"/>
+      <c r="K6" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="60">
+      <c r="M6" s="57">
         <f>D6*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="53" t="s">
-        <v>68</v>
+      <c r="O6" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="52"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="28"/>
+      <c r="V6" s="59">
+        <f>(D6-2*Q6)*M5</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="37">
+        <f>(D6+2*Q6)*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
+      <c r="B7" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
@@ -2212,20 +2283,38 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="58" t="s">
-        <v>68</v>
+      <c r="J7" s="72"/>
+      <c r="K7" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="61">
+      <c r="M7" s="58">
         <f>D7*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="53" t="s">
-        <v>69</v>
+      <c r="O7" s="72"/>
+      <c r="P7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="59">
+        <f>(D7-2*Q7)*M5</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="37">
+        <f>(D7+2*Q7)*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="72"/>
+      <c r="B8" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
@@ -2234,23 +2323,35 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="13">
-        <f>(8732510/600502230)*(1066040/1226278)</f>
-        <v>1.2641803364126243E-2</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="58" t="s">
-        <v>69</v>
+        <f>(15859769/599899923)*(1736464/(1839839 + 106915))</f>
+        <v>2.3581572371007518E-2</v>
+      </c>
+      <c r="J8" s="72"/>
+      <c r="K8" s="55" t="s">
+        <v>63</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="61">
+      <c r="M8" s="58">
         <f>D8*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="53" t="s">
-        <v>70</v>
+      <c r="O8" s="72"/>
+      <c r="P8" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="37"/>
+    </row>
+    <row r="9" spans="1:23" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
+      <c r="B9" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
@@ -2262,54 +2363,102 @@
       </c>
       <c r="H9" s="31">
         <f>H7*H8</f>
-        <v>7626818.2496250272</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="58" t="s">
-        <v>70</v>
+        <v>14226796.710382484</v>
+      </c>
+      <c r="J9" s="72"/>
+      <c r="K9" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="61">
+      <c r="M9" s="58">
         <f>D9*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="53" t="s">
-        <v>71</v>
+      <c r="O9" s="72"/>
+      <c r="P9" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="37"/>
+    </row>
+    <row r="10" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="72"/>
+      <c r="B10" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="58" t="s">
-        <v>71</v>
+      <c r="J10" s="72"/>
+      <c r="K10" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="61">
+      <c r="M10" s="58">
         <f>D10*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="54" t="s">
-        <v>72</v>
+      <c r="O10" s="72"/>
+      <c r="P10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="59">
+        <f>(D10-2*Q10)*M5</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="37">
+        <f>(D10+2*Q10)*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="33.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="78"/>
+      <c r="B11" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="59" t="s">
-        <v>72</v>
+      <c r="J11" s="78"/>
+      <c r="K11" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="61">
+      <c r="M11" s="58">
         <f>D11*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
+      <c r="O11" s="78"/>
+      <c r="P11" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="26"/>
+      <c r="V11" s="63">
+        <f>(D11-2*Q11)*M5</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="38">
+        <f>(D11+2*Q11)*M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="83" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -2319,7 +2468,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="71" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -2332,9 +2481,33 @@
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85"/>
+      <c r="O12" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="S12" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="59" t="e">
+        <f>IF(G1="M",((D12-2*Q12)*M8)/(2*M5),((D12-2*Q12)*M10)/(2*M5))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="37" t="e">
+        <f>IF(G1="M",((D12+2*Q12)*M8)/(2*M5),((D12+2*Q12)*M10)/(2*M5))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="84"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2515,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="76"/>
+      <c r="J13" s="78"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2353,9 +2526,29 @@
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+      <c r="O13" s="78"/>
+      <c r="P13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="63" t="e">
+        <f>IF(G1="M",((D13-2*Q13)*M9)/(M5*2),((D13-2*Q13)*M11)/(M5*2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="38" t="e">
+        <f>IF(G1="M",((D13+2*Q13)*M9)/(M5*2),((D13+2*Q13)*M11)/(M5*2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -2363,10 +2556,10 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="53" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -2376,16 +2569,40 @@
         <f>2*D14*M5*H6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
+      <c r="O14" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="S14" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="59">
+        <f>2*(D14-2*Q14)*M5*H6</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="37">
+        <f>2*(D14+2*Q14)*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="72"/>
+      <c r="K15" s="53" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -2395,15 +2612,35 @@
         <f>2*D15*M5*H6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="75"/>
+      <c r="O15" s="72"/>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="59">
+        <f>2*(D15-2*Q15)*M5*H6</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="37">
+        <f>2*(D15+2*Q15)*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="73"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -2414,9 +2651,23 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
+      <c r="O16" s="73"/>
+      <c r="P16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="61"/>
+      <c r="W16" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="A3:D3"/>
@@ -2427,88 +2678,94 @@
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J14:J16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S5:S11"/>
+    <mergeCell ref="O6:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="S12:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C5F90-B158-4862-AA5B-6C31B78B8164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308ED89E-DA26-4FDF-A66E-E56BC04CEB67}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="3.88671875" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.36328125" customWidth="1"/>
+    <col min="18" max="18" width="4.6328125" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="F1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="F3" s="78" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="F3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="J3" s="78" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="J3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="O3" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="S3" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="80"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="O3" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="S3" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -2553,13 +2810,13 @@
         <v>30</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
@@ -2570,7 +2827,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="20">
-        <v>71968.69</v>
+        <v>404517.5</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>39</v>
@@ -2579,9 +2836,9 @@
         <v>31</v>
       </c>
       <c r="H5" s="20">
-        <v>4.9300000000000001E-9</v>
-      </c>
-      <c r="J5" s="73" t="s">
+        <v>9.859999999999999E-10</v>
+      </c>
+      <c r="J5" s="71" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2590,43 +2847,43 @@
       <c r="L5" s="23"/>
       <c r="M5" s="36">
         <f>D5/(4*H5*H6*H9)</f>
-        <v>47851.250298851177</v>
-      </c>
-      <c r="O5" s="63" t="s">
+        <v>144186.06118382598</v>
+      </c>
+      <c r="O5" s="60" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="20">
-        <v>3.22536E-3</v>
-      </c>
-      <c r="S5" s="73" t="s">
+        <v>0.11088168</v>
+      </c>
+      <c r="S5" s="71" t="s">
         <v>16</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>29</v>
       </c>
       <c r="U5" s="23"/>
-      <c r="V5" s="65">
+      <c r="V5" s="62">
         <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
-        <v>47851.246009833034</v>
-      </c>
-      <c r="W5" s="67">
+        <v>144185.98213857974</v>
+      </c>
+      <c r="W5" s="64">
         <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
-        <v>47851.25458786932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+        <v>144186.14022907222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55">
-        <v>3.1768000000000001</v>
+      <c r="B6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="52">
+        <v>4.3525</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>33</v>
@@ -2635,48 +2892,48 @@
         <v>38</v>
       </c>
       <c r="H6" s="20">
-        <v>10</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="57" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="72"/>
+      <c r="K6" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="60">
+      <c r="M6" s="57">
         <f>D6*M5</f>
-        <v>152013.85194939043</v>
-      </c>
-      <c r="O6" s="73" t="s">
+        <v>627569.83130260254</v>
+      </c>
+      <c r="O6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" s="55">
-        <v>2.0298999999999998E-3</v>
-      </c>
-      <c r="S6" s="74"/>
-      <c r="T6" s="57" t="s">
-        <v>67</v>
+      <c r="P6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>1.3365349500000001</v>
+      </c>
+      <c r="S6" s="72"/>
+      <c r="T6" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="U6" s="28"/>
-      <c r="V6" s="62">
+      <c r="V6" s="59">
         <f>(D6-2*Q6)*M5</f>
-        <v>151819.58544342715</v>
+        <v>242150.41115255895</v>
       </c>
       <c r="W6" s="37">
         <f>(D6+2*Q6)*M5</f>
-        <v>152208.11845535369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="53" t="s">
-        <v>68</v>
+        <v>1012989.2514526462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
+      <c r="B7" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="13">
-        <v>9.5620999999999992</v>
+        <v>26.373100000000001</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>42</v>
@@ -2687,40 +2944,40 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="58" t="s">
-        <v>68</v>
+      <c r="J7" s="72"/>
+      <c r="K7" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="61">
+      <c r="M7" s="58">
         <f>D7*M5</f>
-        <v>457558.44048264477</v>
-      </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="53" t="s">
-        <v>68</v>
+        <v>3802633.4102071612</v>
+      </c>
+      <c r="O7" s="72"/>
+      <c r="P7" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="Q7" s="13">
-        <v>1.9669900000000001E-3</v>
-      </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="58" t="s">
-        <v>68</v>
+        <v>1.5750612900000001</v>
+      </c>
+      <c r="S7" s="72"/>
+      <c r="T7" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="U7" s="24"/>
-      <c r="V7" s="62">
+      <c r="V7" s="59">
         <f>(D7-2*Q7)*M5</f>
-        <v>457370.19462099415</v>
+        <v>3348429.6431507291</v>
       </c>
       <c r="W7" s="37">
         <f>(D7+2*Q7)*M5</f>
-        <v>457746.68634429545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="53" t="s">
-        <v>69</v>
+        <v>4256837.1772635933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="72"/>
+      <c r="B8" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
@@ -2729,35 +2986,35 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="13">
-        <f>(8732510/600502230)*(1066040/1226278)</f>
-        <v>1.2641803364126243E-2</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="58" t="s">
-        <v>69</v>
+        <f>(15859769/599899923)*(1736464/(1839839 + 106915))</f>
+        <v>2.3581572371007518E-2</v>
+      </c>
+      <c r="J8" s="72"/>
+      <c r="K8" s="55" t="s">
+        <v>63</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="61">
+      <c r="M8" s="58">
         <f>D8*M5</f>
         <v>0</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="53" t="s">
-        <v>69</v>
+      <c r="O8" s="72"/>
+      <c r="P8" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="Q8" s="13"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="58" t="s">
-        <v>69</v>
+      <c r="S8" s="72"/>
+      <c r="T8" s="55" t="s">
+        <v>63</v>
       </c>
       <c r="U8" s="24"/>
-      <c r="V8" s="62"/>
+      <c r="V8" s="59"/>
       <c r="W8" s="37"/>
     </row>
-    <row r="9" spans="1:23" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="53" t="s">
-        <v>70</v>
+    <row r="9" spans="1:23" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
+      <c r="B9" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
@@ -2769,110 +3026,110 @@
       </c>
       <c r="H9" s="31">
         <f>H7*H8</f>
-        <v>7626818.2496250272</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="58" t="s">
-        <v>70</v>
+        <v>14226796.710382484</v>
+      </c>
+      <c r="J9" s="72"/>
+      <c r="K9" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="61">
+      <c r="M9" s="58">
         <f>D9*M5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="53" t="s">
-        <v>70</v>
+      <c r="O9" s="72"/>
+      <c r="P9" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="Q9" s="13"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="58" t="s">
-        <v>70</v>
+      <c r="S9" s="72"/>
+      <c r="T9" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="U9" s="24"/>
-      <c r="V9" s="62"/>
+      <c r="V9" s="59"/>
       <c r="W9" s="37"/>
     </row>
-    <row r="10" spans="1:23" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="53" t="s">
-        <v>71</v>
+    <row r="10" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="72"/>
+      <c r="B10" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13">
-        <v>0.1053</v>
-      </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="58" t="s">
-        <v>71</v>
+        <v>3.56E-2</v>
+      </c>
+      <c r="J10" s="72"/>
+      <c r="K10" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="61">
+      <c r="M10" s="58">
         <f>D10*M5</f>
-        <v>5038.7366564690292</v>
-      </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="53" t="s">
-        <v>71</v>
+        <v>5133.0237781442047</v>
+      </c>
+      <c r="O10" s="72"/>
+      <c r="P10" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="Q10" s="13">
-        <v>8.1761100000000003E-3</v>
-      </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="58" t="s">
-        <v>71</v>
+        <v>3.6542806099999998</v>
+      </c>
+      <c r="S10" s="72"/>
+      <c r="T10" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="U10" s="24"/>
-      <c r="V10" s="62">
+      <c r="V10" s="59">
         <f>(D10-2*Q10)*M5</f>
-        <v>4256.262484307149</v>
+        <v>-1048659.6314545136</v>
       </c>
       <c r="W10" s="37">
         <f>(D10+2*Q10)*M5</f>
-        <v>5821.2108286309094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="54" t="s">
-        <v>72</v>
+        <v>1058925.6790108019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="33.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="78"/>
+      <c r="B11" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="59" t="s">
-        <v>72</v>
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="61">
+      <c r="M11" s="58">
         <f>D11*M5</f>
-        <v>1894.9095118345067</v>
-      </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="54" t="s">
-        <v>72</v>
+        <v>3575.8143173588842</v>
+      </c>
+      <c r="O11" s="78"/>
+      <c r="P11" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="Q11" s="20">
-        <v>1.028575E-2</v>
-      </c>
-      <c r="S11" s="76"/>
-      <c r="T11" s="59" t="s">
-        <v>72</v>
+        <v>3.22294423</v>
+      </c>
+      <c r="S11" s="78"/>
+      <c r="T11" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="U11" s="26"/>
-      <c r="V11" s="66">
+      <c r="V11" s="63">
         <f>(D11-2*Q11)*M5</f>
-        <v>910.53751631168984</v>
+        <v>-925831.45356031891</v>
       </c>
       <c r="W11" s="38">
         <f>(D11+2*Q11)*M5</f>
-        <v>2879.2815073573238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
+        <v>932983.0821950367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="83" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -2882,9 +3139,9 @@
         <v>34</v>
       </c>
       <c r="D12" s="13">
-        <v>3.0836000000000001</v>
-      </c>
-      <c r="J12" s="73" t="s">
+        <v>10.747199999999999</v>
+      </c>
+      <c r="J12" s="71" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -2895,18 +3152,18 @@
       </c>
       <c r="M12" s="39">
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
-        <v>0.16235154000000002</v>
-      </c>
-      <c r="O12" s="74" t="s">
+        <v>0.19130016</v>
+      </c>
+      <c r="O12" s="72" t="s">
         <v>17</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="13">
-        <v>5.9988899999999998E-3</v>
-      </c>
-      <c r="S12" s="73" t="s">
+        <v>3.2266274699999999</v>
+      </c>
+      <c r="S12" s="71" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="27" t="s">
@@ -2915,17 +3172,17 @@
       <c r="U12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="62">
+      <c r="V12" s="59">
         <f>IF(G1="M",((D12-2*Q12)*M8)/(2*M5),((D12-2*Q12)*M10)/(2*M5))</f>
-        <v>0.161719856883</v>
+        <v>7.6432222067999989E-2</v>
       </c>
       <c r="W12" s="37">
         <f>IF(G1="M",((D12+2*Q12)*M8)/(2*M5),((D12+2*Q12)*M10)/(2*M5))</f>
-        <v>0.16298322311700003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85"/>
+        <v>0.30616809793200001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="84"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2933,9 +3190,9 @@
         <v>34</v>
       </c>
       <c r="D13" s="20">
-        <v>5.4648000000000003</v>
-      </c>
-      <c r="J13" s="76"/>
+        <v>1.0565</v>
+      </c>
+      <c r="J13" s="78"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2944,33 +3201,33 @@
       </c>
       <c r="M13" s="38">
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
-        <v>0.10820304000000001</v>
-      </c>
-      <c r="O13" s="76"/>
+        <v>1.3100599999999999E-2</v>
+      </c>
+      <c r="O13" s="78"/>
       <c r="P13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="20">
-        <v>1.0813440000000001E-2</v>
-      </c>
-      <c r="S13" s="76"/>
+        <v>4.17443425</v>
+      </c>
+      <c r="S13" s="78"/>
       <c r="T13" s="25" t="s">
         <v>25</v>
       </c>
       <c r="U13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="66">
+      <c r="V13" s="63">
         <f>IF(G1="M",((D13-2*Q13)*M9)/(M5*2),((D13-2*Q13)*M11)/(M5*2))</f>
-        <v>0.10777482777600002</v>
+        <v>-9.0425369399999997E-2</v>
       </c>
       <c r="W13" s="38">
         <f>IF(G1="M",((D13+2*Q13)*M9)/(M5*2),((D13+2*Q13)*M11)/(M5*2))</f>
-        <v>0.10863125222400001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+        <v>0.1166265694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -2978,12 +3235,12 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13">
-        <v>5.3705999999999996</v>
-      </c>
-      <c r="J14" s="73" t="s">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="J14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="53" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -2991,46 +3248,46 @@
       </c>
       <c r="M14" s="37">
         <f>2*D14*M5*H6</f>
-        <v>5139798.4971002024</v>
-      </c>
-      <c r="O14" s="73" t="s">
+        <v>4547628.369737871</v>
+      </c>
+      <c r="O14" s="71" t="s">
         <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="13">
-        <v>4.9685500000000004E-3</v>
-      </c>
-      <c r="S14" s="73" t="s">
+        <v>0.69228957000000002</v>
+      </c>
+      <c r="S14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="56" t="s">
+      <c r="T14" s="53" t="s">
         <v>44</v>
       </c>
       <c r="U14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="62">
+      <c r="V14" s="59">
         <f>2*(D14-2*Q14)*M5*H6</f>
-        <v>5130288.443913308</v>
+        <v>-15416072.889651047</v>
       </c>
       <c r="W14" s="37">
         <f>2*(D14+2*Q14)*M5*H6</f>
-        <v>5149308.5502870968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
+        <v>24511329.629126783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13">
-        <v>0.14280000000000001</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="56" t="s">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="J15" s="72"/>
+      <c r="K15" s="53" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -3038,39 +3295,39 @@
       </c>
       <c r="M15" s="37">
         <f>2*D15*M5*H6</f>
-        <v>136663.17085351897</v>
-      </c>
-      <c r="O15" s="74"/>
+        <v>1296232.6900425954</v>
+      </c>
+      <c r="O15" s="72"/>
       <c r="P15" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="13">
-        <v>8.6076499999999997E-3</v>
-      </c>
-      <c r="S15" s="74"/>
-      <c r="T15" s="56" t="s">
+        <v>3.0329948099999999</v>
+      </c>
+      <c r="S15" s="72"/>
+      <c r="T15" s="53" t="s">
         <v>45</v>
       </c>
       <c r="U15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="V15" s="62">
+      <c r="V15" s="59">
         <f>2*(D15-2*Q15)*M5*H6</f>
-        <v>120187.69826812274</v>
+        <v>-86166882.35893473</v>
       </c>
       <c r="W15" s="37">
         <f>2*(D15+2*Q15)*M5*H6</f>
-        <v>153138.6434389152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="75"/>
+        <v>88759347.739019915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="73"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3081,106 +3338,122 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="73"/>
       <c r="P16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="S16" s="75"/>
+      <c r="S16" s="73"/>
       <c r="T16" s="29" t="s">
         <v>46</v>
       </c>
       <c r="U16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="V16" s="64"/>
+      <c r="V16" s="61"/>
       <c r="W16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="S3:W3"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="S14:S16"/>
     <mergeCell ref="J5:J11"/>
+    <mergeCell ref="S5:S11"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="O6:O11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S5:S11"/>
     <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7910FDE-95EA-4B4D-B1A0-05B30AE6AB51}">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6C86A7-D54E-44B9-8D29-A3DBE24275A0}">
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.36328125" customWidth="1"/>
+    <col min="18" max="18" width="4.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="F1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="F3" s="78" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="F3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="J3" s="78" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="J3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="O3" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="S3" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -3210,8 +3483,28 @@
       <c r="M4" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="11"/>
+      <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
@@ -3222,7 +3515,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="20">
-        <v>336964</v>
+        <v>534487.1</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>39</v>
@@ -3231,9 +3524,9 @@
         <v>31</v>
       </c>
       <c r="H5" s="20">
-        <v>4.9300000000000001E-9</v>
-      </c>
-      <c r="J5" s="73" t="s">
+        <v>9.859999999999999E-10</v>
+      </c>
+      <c r="J5" s="71" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -3242,19 +3535,41 @@
       <c r="L5" s="23"/>
       <c r="M5" s="36">
         <f>D5/(4*H5*H6*H9)</f>
-        <v>224043.93779714606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+        <v>190512.37511990385</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55">
-        <v>0.1497</v>
+      <c r="T5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="23"/>
+      <c r="V5" s="62">
+        <f>(D5 - 2*Q5)/(4*H5*H6*H9)</f>
+        <v>190512.37511990385</v>
+      </c>
+      <c r="W5" s="64">
+        <f>(D5+2*Q5)/(4*H5*H6*H9)</f>
+        <v>190512.37511990385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="52">
+        <v>3.5617000000000001</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>33</v>
@@ -3263,26 +3578,46 @@
         <v>38</v>
       </c>
       <c r="H6" s="20">
-        <v>10</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="57" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="72"/>
+      <c r="K6" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="60">
+      <c r="M6" s="57">
         <f>D6*M5</f>
-        <v>33539.377488232763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="53" t="s">
-        <v>68</v>
+        <v>678547.92646456161</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="52"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="28"/>
+      <c r="V6" s="59">
+        <f>(D6-2*Q6)*M5</f>
+        <v>678547.92646456161</v>
+      </c>
+      <c r="W6" s="37">
+        <f>(D6+2*Q6)*M5</f>
+        <v>678547.92646456161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
+      <c r="B7" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="13">
-        <v>3.7086999999999999</v>
+        <v>27.1096</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>42</v>
@@ -3293,20 +3628,38 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="58" t="s">
-        <v>68</v>
+      <c r="J7" s="72"/>
+      <c r="K7" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="61">
+      <c r="M7" s="58">
         <f>D7*M5</f>
-        <v>830911.75210827554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="53" t="s">
-        <v>69</v>
+        <v>5164714.2845505457</v>
+      </c>
+      <c r="O7" s="72"/>
+      <c r="P7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="59">
+        <f>(D7-2*Q7)*M5</f>
+        <v>5164714.2845505457</v>
+      </c>
+      <c r="W7" s="37">
+        <f>(D7+2*Q7)*M5</f>
+        <v>5164714.2845505457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="72"/>
+      <c r="B8" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
@@ -3315,23 +3668,35 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="13">
-        <f>(8732510/600502230)*(1066040/1226278)</f>
-        <v>1.2641803364126243E-2</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="58" t="s">
-        <v>69</v>
+        <f>(15859769/599899923)*(1736464/(1839839 + 106915))</f>
+        <v>2.3581572371007518E-2</v>
+      </c>
+      <c r="J8" s="72"/>
+      <c r="K8" s="55" t="s">
+        <v>63</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="61">
+      <c r="M8" s="58">
         <f>D8*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="53" t="s">
-        <v>70</v>
+      <c r="O8" s="72"/>
+      <c r="P8" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="37"/>
+    </row>
+    <row r="9" spans="1:23" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
+      <c r="B9" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
@@ -3343,58 +3708,106 @@
       </c>
       <c r="H9" s="31">
         <f>H7*H8</f>
-        <v>7626818.2496250272</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="58" t="s">
-        <v>70</v>
+        <v>14226796.710382484</v>
+      </c>
+      <c r="J9" s="72"/>
+      <c r="K9" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="61">
+      <c r="M9" s="58">
         <f>D9*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="53" t="s">
-        <v>71</v>
+      <c r="O9" s="72"/>
+      <c r="P9" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="37"/>
+    </row>
+    <row r="10" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="72"/>
+      <c r="B10" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="58" t="s">
-        <v>71</v>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="J10" s="72"/>
+      <c r="K10" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="61">
+      <c r="M10" s="58">
         <f>D10*M5</f>
-        <v>11157.388102297873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="54" t="s">
-        <v>72</v>
+        <v>4877.1168030695389</v>
+      </c>
+      <c r="O10" s="72"/>
+      <c r="P10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="59">
+        <f>(D10-2*Q10)*M5</f>
+        <v>4877.1168030695389</v>
+      </c>
+      <c r="W10" s="37">
+        <f>(D10+2*Q10)*M5</f>
+        <v>4877.1168030695389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="33.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="78"/>
+      <c r="B11" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20">
-        <v>1.01E-2</v>
-      </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="59" t="s">
-        <v>72</v>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="61">
+      <c r="M11" s="58">
         <f>D11*M5</f>
-        <v>2262.8437717511752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
+        <v>2095.6361263189424</v>
+      </c>
+      <c r="O11" s="78"/>
+      <c r="P11" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="26"/>
+      <c r="V11" s="63">
+        <f>(D11-2*Q11)*M5</f>
+        <v>2095.6361263189424</v>
+      </c>
+      <c r="W11" s="38">
+        <f>(D11+2*Q11)*M5</f>
+        <v>2095.6361263189424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="83" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -3404,7 +3817,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="71" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3417,9 +3830,33 @@
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85"/>
+      <c r="O12" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="S12" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="59">
+        <f>IF(G1="M",((D12-2*Q12)*M8)/(2*M5),((D12-2*Q12)*M10)/(2*M5))</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="37">
+        <f>IF(G1="M",((D12+2*Q12)*M8)/(2*M5),((D12+2*Q12)*M10)/(2*M5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="84"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3427,7 +3864,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="76"/>
+      <c r="J13" s="78"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3438,9 +3875,29 @@
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+      <c r="O13" s="78"/>
+      <c r="P13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="63">
+        <f>IF(G1="M",((D13-2*Q13)*M9)/(M5*2),((D13-2*Q13)*M11)/(M5*2))</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="38">
+        <f>IF(G1="M",((D13+2*Q13)*M9)/(M5*2),((D13+2*Q13)*M11)/(M5*2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3448,12 +3905,12 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="J14" s="73" t="s">
+        <v>3.39E-2</v>
+      </c>
+      <c r="J14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="53" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -3461,18 +3918,42 @@
       </c>
       <c r="M14" s="37">
         <f>2*D14*M5*H6</f>
-        <v>103956.38713787578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
+        <v>645836.95165647403</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="S14" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="59">
+        <f>2*(D14-2*Q14)*M5*H6</f>
+        <v>645836.95165647403</v>
+      </c>
+      <c r="W14" s="37">
+        <f>2*(D14+2*Q14)*M5*H6</f>
+        <v>645836.95165647403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="72"/>
+      <c r="K15" s="53" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -3482,15 +3963,35 @@
         <f>2*D15*M5*H6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="75"/>
+      <c r="O15" s="72"/>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="59">
+        <f>2*(D15-2*Q15)*M5*H6</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="37">
+        <f>2*(D15+2*Q15)*M5*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="73"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3501,840 +4002,41 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
+      <c r="O16" s="73"/>
+      <c r="P16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="61"/>
+      <c r="W16" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="J14:J16"/>
+  <mergeCells count="18">
+    <mergeCell ref="S3:W3"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="S14:S16"/>
     <mergeCell ref="J5:J11"/>
+    <mergeCell ref="S5:S11"/>
     <mergeCell ref="A6:A11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CAB648-A05B-4C48-814E-9BD2F732E49B}">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="F1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="F3" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="J3" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="20">
-        <v>177855.6</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="20">
-        <v>4.9300000000000001E-9</v>
-      </c>
-      <c r="J5" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="36">
-        <f>D5/(4*H5*H6*H9)</f>
-        <v>118254.38024024552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55">
-        <v>0.78890000000000005</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="20">
-        <v>10</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="60">
-        <f>D6*M5</f>
-        <v>93290.880571529691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="13">
-        <v>4.1205999999999996</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="13">
-        <v>603301446</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="61">
-        <f>D7*M5</f>
-        <v>487278.99921795563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="13">
-        <v>1.1295999999999999</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="13">
-        <f>(8732510/600502230)*(1066040/1226278)</f>
-        <v>1.2641803364126243E-2</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="61">
-        <f>D8*M5</f>
-        <v>133580.14791938133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="13">
-        <v>6.1315</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="31">
-        <f>H7*H8</f>
-        <v>7626818.2496250272</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="61">
-        <f>D9*M5</f>
-        <v>725076.73244306538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="13">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="61">
-        <f>D10*M5</f>
-        <v>6657.7216075258229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="20">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="61">
-        <f>D11*M5</f>
-        <v>2897.2323158860154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="13">
-        <v>8.5219000000000005</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="39">
-        <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
-        <v>0.23989148500000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85"/>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="20">
-        <v>5.9484000000000004</v>
-      </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="38">
-        <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
-        <v>7.2867899999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="13">
-        <v>1.3299000000000001</v>
-      </c>
-      <c r="J14" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="37">
-        <f>2*D14*M5*H6</f>
-        <v>3145330.0056300503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="13">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="37">
-        <f>2*D15*M5*H6</f>
-        <v>175962.51779748531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="75"/>
-      <c r="B16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="40">
-        <f>2*D16*M5*H6</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
+    <mergeCell ref="O6:O11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="A6:A11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C638186B-6157-4ADF-97F4-54F4EBDD73BB}">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="F1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="F3" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="J3" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="20">
-        <v>20816.03</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="20">
-        <v>4.9300000000000001E-9</v>
-      </c>
-      <c r="J5" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="36">
-        <f>D5/(4*H5*H6*H9)</f>
-        <v>13840.366717226547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="20">
-        <v>10</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="60">
-        <f>D6*M5</f>
-        <v>10214.190637313191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="13">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="13">
-        <v>603301446</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="61">
-        <f>D7*M5</f>
-        <v>21812.41794634904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="13">
-        <v>8.2385999999999999</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="13">
-        <f>(8732510/600502230)*(1066040/1226278)</f>
-        <v>1.2641803364126243E-2</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="61">
-        <f>D8*M5</f>
-        <v>114025.24523654263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="13">
-        <v>13.714399999999999</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="31">
-        <f>H7*H8</f>
-        <v>7626818.2496250272</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="61">
-        <f>D9*M5</f>
-        <v>189812.32530673174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="13">
-        <v>0.1104</v>
-      </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="61">
-        <f>D10*M5</f>
-        <v>1527.9764855818107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="20">
-        <v>5.45E-2</v>
-      </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="61">
-        <f>D11*M5</f>
-        <v>754.29998608884682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1.3498000000000001</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="39">
-        <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
-        <v>5.5602311400000008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85"/>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.91690000000000005</v>
-      </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="38">
-        <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
-        <v>6.2873666800000008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="13">
-        <v>1.35E-2</v>
-      </c>
-      <c r="J14" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="37">
-        <f>2*D14*M5*H6</f>
-        <v>3736.8990136511679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="13">
-        <v>25.9312</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="37">
-        <f>2*D15*M5*H6</f>
-        <v>7177946.3483549003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="75"/>
-      <c r="B16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="J16" s="75"/>
-      <c r="K16" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="40">
-        <f>2*D16*M5*H6</f>
-        <v>32386.458118310118</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="S12:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/05.analyses/demography/dadi/2D/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1845" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F554A0-9981-4CF5-AA93-41EEBD9163CD}"/>
+  <xr:revisionPtr revIDLastSave="1846" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C739A7-E6D1-4952-9157-E10403F2C9E1}"/>
   <bookViews>
-    <workbookView xWindow="-23520" yWindow="-3870" windowWidth="19470" windowHeight="14175" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
@@ -1176,17 +1176,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,12 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1218,6 +1203,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,6 +1233,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2075,44 +2079,44 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="F1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="F3" s="75" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="F3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="J3" s="75" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="J3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="O3" s="74" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="O3" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="S3" s="75" t="s">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="S3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="74"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
@@ -2185,7 +2189,7 @@
       <c r="H5" s="20">
         <v>4.9300000000000001E-9</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2203,7 +2207,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="20"/>
-      <c r="S5" s="71" t="s">
+      <c r="S5" s="80" t="s">
         <v>16</v>
       </c>
       <c r="T5" s="22" t="s">
@@ -2220,7 +2224,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="80" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -2237,7 +2241,7 @@
       <c r="H6" s="20">
         <v>50</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="54" t="s">
         <v>61</v>
       </c>
@@ -2246,14 +2250,14 @@
         <f>D6*M5</f>
         <v>0</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="80" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="48" t="s">
         <v>61</v>
       </c>
       <c r="Q6" s="52"/>
-      <c r="S6" s="72"/>
+      <c r="S6" s="81"/>
       <c r="T6" s="54" t="s">
         <v>61</v>
       </c>
@@ -2268,7 +2272,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -2283,7 +2287,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="55" t="s">
         <v>62</v>
       </c>
@@ -2292,12 +2296,12 @@
         <f>D7*M5</f>
         <v>0</v>
       </c>
-      <c r="O7" s="72"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="50" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="13"/>
-      <c r="S7" s="72"/>
+      <c r="S7" s="81"/>
       <c r="T7" s="55" t="s">
         <v>62</v>
       </c>
@@ -2312,7 +2316,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="72"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="50" t="s">
         <v>63</v>
       </c>
@@ -2326,7 +2330,7 @@
         <f>(15859769/599899923)*(1736464/(1839839 + 106915))</f>
         <v>2.3581572371007518E-2</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="55" t="s">
         <v>63</v>
       </c>
@@ -2335,12 +2339,12 @@
         <f>D8*M5</f>
         <v>0</v>
       </c>
-      <c r="O8" s="72"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="50" t="s">
         <v>63</v>
       </c>
       <c r="Q8" s="13"/>
-      <c r="S8" s="72"/>
+      <c r="S8" s="81"/>
       <c r="T8" s="55" t="s">
         <v>63</v>
       </c>
@@ -2349,7 +2353,7 @@
       <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="50" t="s">
         <v>64</v>
       </c>
@@ -2365,7 +2369,7 @@
         <f>H7*H8</f>
         <v>14226796.710382484</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="55" t="s">
         <v>64</v>
       </c>
@@ -2374,12 +2378,12 @@
         <f>D9*M5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="72"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="50" t="s">
         <v>64</v>
       </c>
       <c r="Q9" s="13"/>
-      <c r="S9" s="72"/>
+      <c r="S9" s="81"/>
       <c r="T9" s="55" t="s">
         <v>64</v>
       </c>
@@ -2388,13 +2392,13 @@
       <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="72"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
-      <c r="J10" s="72"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="55" t="s">
         <v>65</v>
       </c>
@@ -2403,12 +2407,12 @@
         <f>D10*M5</f>
         <v>0</v>
       </c>
-      <c r="O10" s="72"/>
+      <c r="O10" s="81"/>
       <c r="P10" s="50" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="13"/>
-      <c r="S10" s="72"/>
+      <c r="S10" s="81"/>
       <c r="T10" s="55" t="s">
         <v>65</v>
       </c>
@@ -2423,13 +2427,13 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="33.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="56" t="s">
         <v>66</v>
       </c>
@@ -2438,12 +2442,12 @@
         <f>D11*M5</f>
         <v>0</v>
       </c>
-      <c r="O11" s="78"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="20"/>
-      <c r="S11" s="78"/>
+      <c r="S11" s="83"/>
       <c r="T11" s="56" t="s">
         <v>66</v>
       </c>
@@ -2458,7 +2462,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -2468,7 +2472,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="80" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -2481,14 +2485,14 @@
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="O12" s="81" t="s">
         <v>17</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="13"/>
-      <c r="S12" s="71" t="s">
+      <c r="S12" s="80" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="27" t="s">
@@ -2507,7 +2511,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="84"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="78"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2526,12 +2530,12 @@
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O13" s="78"/>
+      <c r="O13" s="83"/>
       <c r="P13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="20"/>
-      <c r="S13" s="78"/>
+      <c r="S13" s="83"/>
       <c r="T13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2548,7 +2552,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -2556,7 +2560,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="53" t="s">
@@ -2569,14 +2573,14 @@
         <f>2*D14*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="13"/>
-      <c r="S14" s="71" t="s">
+      <c r="S14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="T14" s="53" t="s">
@@ -2595,13 +2599,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="72"/>
+      <c r="A15" s="81"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="72"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="53" t="s">
         <v>45</v>
       </c>
@@ -2612,12 +2616,12 @@
         <f>2*D15*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O15" s="72"/>
+      <c r="O15" s="81"/>
       <c r="P15" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="13"/>
-      <c r="S15" s="72"/>
+      <c r="S15" s="81"/>
       <c r="T15" s="53" t="s">
         <v>45</v>
       </c>
@@ -2634,13 +2638,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="73"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="73"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -2651,12 +2655,12 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O16" s="73"/>
+      <c r="O16" s="82"/>
       <c r="P16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="S16" s="73"/>
+      <c r="S16" s="82"/>
       <c r="T16" s="29" t="s">
         <v>46</v>
       </c>
@@ -2668,16 +2672,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J16"/>
     <mergeCell ref="O14:O16"/>
     <mergeCell ref="S14:S16"/>
     <mergeCell ref="O3:Q3"/>
@@ -2686,6 +2680,16 @@
     <mergeCell ref="O6:O11"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="S12:S13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2724,46 +2728,46 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="F1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="F3" s="75" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="F3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="J3" s="75" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="J3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="O3" s="74" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="O3" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="S3" s="75" t="s">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="S3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="74"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
@@ -2838,7 +2842,7 @@
       <c r="H5" s="20">
         <v>9.859999999999999E-10</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -2858,7 +2862,7 @@
       <c r="Q5" s="20">
         <v>0.11088168</v>
       </c>
-      <c r="S5" s="71" t="s">
+      <c r="S5" s="80" t="s">
         <v>16</v>
       </c>
       <c r="T5" s="22" t="s">
@@ -2875,7 +2879,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="80" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -2894,7 +2898,7 @@
       <c r="H6" s="20">
         <v>50</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="54" t="s">
         <v>61</v>
       </c>
@@ -2903,7 +2907,7 @@
         <f>D6*M5</f>
         <v>627569.83130260254</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="80" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="48" t="s">
@@ -2912,7 +2916,7 @@
       <c r="Q6" s="52">
         <v>1.3365349500000001</v>
       </c>
-      <c r="S6" s="72"/>
+      <c r="S6" s="81"/>
       <c r="T6" s="54" t="s">
         <v>61</v>
       </c>
@@ -2927,7 +2931,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -2944,7 +2948,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="55" t="s">
         <v>62</v>
       </c>
@@ -2953,14 +2957,14 @@
         <f>D7*M5</f>
         <v>3802633.4102071612</v>
       </c>
-      <c r="O7" s="72"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="50" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="13">
         <v>1.5750612900000001</v>
       </c>
-      <c r="S7" s="72"/>
+      <c r="S7" s="81"/>
       <c r="T7" s="55" t="s">
         <v>62</v>
       </c>
@@ -2975,7 +2979,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="72"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="50" t="s">
         <v>63</v>
       </c>
@@ -2989,7 +2993,7 @@
         <f>(15859769/599899923)*(1736464/(1839839 + 106915))</f>
         <v>2.3581572371007518E-2</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="55" t="s">
         <v>63</v>
       </c>
@@ -2998,12 +3002,12 @@
         <f>D8*M5</f>
         <v>0</v>
       </c>
-      <c r="O8" s="72"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="50" t="s">
         <v>63</v>
       </c>
       <c r="Q8" s="13"/>
-      <c r="S8" s="72"/>
+      <c r="S8" s="81"/>
       <c r="T8" s="55" t="s">
         <v>63</v>
       </c>
@@ -3012,7 +3016,7 @@
       <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="50" t="s">
         <v>64</v>
       </c>
@@ -3028,7 +3032,7 @@
         <f>H7*H8</f>
         <v>14226796.710382484</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="55" t="s">
         <v>64</v>
       </c>
@@ -3037,12 +3041,12 @@
         <f>D9*M5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="72"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="50" t="s">
         <v>64</v>
       </c>
       <c r="Q9" s="13"/>
-      <c r="S9" s="72"/>
+      <c r="S9" s="81"/>
       <c r="T9" s="55" t="s">
         <v>64</v>
       </c>
@@ -3051,7 +3055,7 @@
       <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="72"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="50" t="s">
         <v>65</v>
       </c>
@@ -3059,7 +3063,7 @@
       <c r="D10" s="13">
         <v>3.56E-2</v>
       </c>
-      <c r="J10" s="72"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="55" t="s">
         <v>65</v>
       </c>
@@ -3068,14 +3072,14 @@
         <f>D10*M5</f>
         <v>5133.0237781442047</v>
       </c>
-      <c r="O10" s="72"/>
+      <c r="O10" s="81"/>
       <c r="P10" s="50" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="13">
         <v>3.6542806099999998</v>
       </c>
-      <c r="S10" s="72"/>
+      <c r="S10" s="81"/>
       <c r="T10" s="55" t="s">
         <v>65</v>
       </c>
@@ -3090,7 +3094,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="33.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="51" t="s">
         <v>66</v>
       </c>
@@ -3098,7 +3102,7 @@
       <c r="D11" s="20">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J11" s="78"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="56" t="s">
         <v>66</v>
       </c>
@@ -3107,14 +3111,14 @@
         <f>D11*M5</f>
         <v>3575.8143173588842</v>
       </c>
-      <c r="O11" s="78"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="20">
         <v>3.22294423</v>
       </c>
-      <c r="S11" s="78"/>
+      <c r="S11" s="83"/>
       <c r="T11" s="56" t="s">
         <v>66</v>
       </c>
@@ -3129,7 +3133,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -3141,7 +3145,7 @@
       <c r="D12" s="13">
         <v>10.747199999999999</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="80" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3154,7 +3158,7 @@
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
         <v>0.19130016</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="O12" s="81" t="s">
         <v>17</v>
       </c>
       <c r="P12" t="s">
@@ -3163,7 +3167,7 @@
       <c r="Q12" s="13">
         <v>3.2266274699999999</v>
       </c>
-      <c r="S12" s="71" t="s">
+      <c r="S12" s="80" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="27" t="s">
@@ -3182,7 +3186,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="84"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3192,7 +3196,7 @@
       <c r="D13" s="20">
         <v>1.0565</v>
       </c>
-      <c r="J13" s="78"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3203,14 +3207,14 @@
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
         <v>1.3100599999999999E-2</v>
       </c>
-      <c r="O13" s="78"/>
+      <c r="O13" s="83"/>
       <c r="P13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="20">
         <v>4.17443425</v>
       </c>
-      <c r="S13" s="78"/>
+      <c r="S13" s="83"/>
       <c r="T13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3227,7 +3231,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3237,7 +3241,7 @@
       <c r="D14" s="13">
         <v>0.31540000000000001</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="53" t="s">
@@ -3250,7 +3254,7 @@
         <f>2*D14*M5*H6</f>
         <v>4547628.369737871</v>
       </c>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="P14" t="s">
@@ -3259,7 +3263,7 @@
       <c r="Q14" s="13">
         <v>0.69228957000000002</v>
       </c>
-      <c r="S14" s="71" t="s">
+      <c r="S14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="T14" s="53" t="s">
@@ -3278,7 +3282,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="72"/>
+      <c r="A15" s="81"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -3286,7 +3290,7 @@
       <c r="D15" s="13">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="J15" s="72"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="53" t="s">
         <v>45</v>
       </c>
@@ -3297,14 +3301,14 @@
         <f>2*D15*M5*H6</f>
         <v>1296232.6900425954</v>
       </c>
-      <c r="O15" s="72"/>
+      <c r="O15" s="81"/>
       <c r="P15" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="13">
         <v>3.0329948099999999</v>
       </c>
-      <c r="S15" s="72"/>
+      <c r="S15" s="81"/>
       <c r="T15" s="53" t="s">
         <v>45</v>
       </c>
@@ -3321,13 +3325,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="73"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="73"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3338,12 +3342,12 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O16" s="73"/>
+      <c r="O16" s="82"/>
       <c r="P16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="S16" s="73"/>
+      <c r="S16" s="82"/>
       <c r="T16" s="29" t="s">
         <v>46</v>
       </c>
@@ -3355,12 +3359,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="O14:O16"/>
@@ -3373,6 +3371,12 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3383,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6C86A7-D54E-44B9-8D29-A3DBE24275A0}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3403,6 +3407,7 @@
     <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.90625" customWidth="1"/>
     <col min="14" max="14" width="4.36328125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.6328125" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.08984375" bestFit="1" customWidth="1"/>
@@ -3412,46 +3417,46 @@
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="F1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="F3" s="75" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="F3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="J3" s="75" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="J3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="O3" s="74" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="O3" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="S3" s="75" t="s">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="S3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="74"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
@@ -3526,7 +3531,7 @@
       <c r="H5" s="20">
         <v>9.859999999999999E-10</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -3544,7 +3549,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="20"/>
-      <c r="S5" s="71" t="s">
+      <c r="S5" s="80" t="s">
         <v>16</v>
       </c>
       <c r="T5" s="22" t="s">
@@ -3561,7 +3566,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="80" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -3580,7 +3585,7 @@
       <c r="H6" s="20">
         <v>50</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="54" t="s">
         <v>61</v>
       </c>
@@ -3589,14 +3594,14 @@
         <f>D6*M5</f>
         <v>678547.92646456161</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="80" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="48" t="s">
         <v>61</v>
       </c>
       <c r="Q6" s="52"/>
-      <c r="S6" s="72"/>
+      <c r="S6" s="81"/>
       <c r="T6" s="54" t="s">
         <v>61</v>
       </c>
@@ -3611,7 +3616,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -3628,7 +3633,7 @@
       <c r="H7" s="13">
         <v>603301446</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="55" t="s">
         <v>62</v>
       </c>
@@ -3637,12 +3642,12 @@
         <f>D7*M5</f>
         <v>5164714.2845505457</v>
       </c>
-      <c r="O7" s="72"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="50" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="13"/>
-      <c r="S7" s="72"/>
+      <c r="S7" s="81"/>
       <c r="T7" s="55" t="s">
         <v>62</v>
       </c>
@@ -3657,7 +3662,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="72"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="50" t="s">
         <v>63</v>
       </c>
@@ -3671,7 +3676,7 @@
         <f>(15859769/599899923)*(1736464/(1839839 + 106915))</f>
         <v>2.3581572371007518E-2</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="55" t="s">
         <v>63</v>
       </c>
@@ -3680,12 +3685,12 @@
         <f>D8*M5</f>
         <v>0</v>
       </c>
-      <c r="O8" s="72"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="50" t="s">
         <v>63</v>
       </c>
       <c r="Q8" s="13"/>
-      <c r="S8" s="72"/>
+      <c r="S8" s="81"/>
       <c r="T8" s="55" t="s">
         <v>63</v>
       </c>
@@ -3694,7 +3699,7 @@
       <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="50" t="s">
         <v>64</v>
       </c>
@@ -3710,7 +3715,7 @@
         <f>H7*H8</f>
         <v>14226796.710382484</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="55" t="s">
         <v>64</v>
       </c>
@@ -3719,12 +3724,12 @@
         <f>D9*M5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="72"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="50" t="s">
         <v>64</v>
       </c>
       <c r="Q9" s="13"/>
-      <c r="S9" s="72"/>
+      <c r="S9" s="81"/>
       <c r="T9" s="55" t="s">
         <v>64</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="72"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="50" t="s">
         <v>65</v>
       </c>
@@ -3741,7 +3746,7 @@
       <c r="D10" s="13">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="J10" s="72"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="55" t="s">
         <v>65</v>
       </c>
@@ -3750,12 +3755,12 @@
         <f>D10*M5</f>
         <v>4877.1168030695389</v>
       </c>
-      <c r="O10" s="72"/>
+      <c r="O10" s="81"/>
       <c r="P10" s="50" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="13"/>
-      <c r="S10" s="72"/>
+      <c r="S10" s="81"/>
       <c r="T10" s="55" t="s">
         <v>65</v>
       </c>
@@ -3770,7 +3775,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="33.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="51" t="s">
         <v>66</v>
       </c>
@@ -3778,7 +3783,7 @@
       <c r="D11" s="20">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J11" s="78"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="56" t="s">
         <v>66</v>
       </c>
@@ -3787,12 +3792,12 @@
         <f>D11*M5</f>
         <v>2095.6361263189424</v>
       </c>
-      <c r="O11" s="78"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="20"/>
-      <c r="S11" s="78"/>
+      <c r="S11" s="83"/>
       <c r="T11" s="56" t="s">
         <v>66</v>
       </c>
@@ -3807,7 +3812,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -3817,7 +3822,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="80" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="27" t="s">
@@ -3830,14 +3835,14 @@
         <f>IF(G1="M",(D12*M8)/(2*M5),(D12*M10)/(2*M5))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="O12" s="81" t="s">
         <v>17</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="13"/>
-      <c r="S12" s="71" t="s">
+      <c r="S12" s="80" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="27" t="s">
@@ -3856,7 +3861,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="84"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3864,7 +3869,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="J13" s="78"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3875,12 +3880,12 @@
         <f>IF(G1="M",(D13*M9)/(M5*2),(D13*M11)/(M5*2))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="78"/>
+      <c r="O13" s="83"/>
       <c r="P13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="20"/>
-      <c r="S13" s="78"/>
+      <c r="S13" s="83"/>
       <c r="T13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3897,7 +3902,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3907,7 +3912,7 @@
       <c r="D14" s="13">
         <v>3.39E-2</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="53" t="s">
@@ -3920,14 +3925,14 @@
         <f>2*D14*M5*H6</f>
         <v>645836.95165647403</v>
       </c>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="13"/>
-      <c r="S14" s="71" t="s">
+      <c r="S14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="T14" s="53" t="s">
@@ -3946,13 +3951,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="72"/>
+      <c r="A15" s="81"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
-      <c r="J15" s="72"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="53" t="s">
         <v>45</v>
       </c>
@@ -3963,12 +3968,12 @@
         <f>2*D15*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O15" s="72"/>
+      <c r="O15" s="81"/>
       <c r="P15" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="13"/>
-      <c r="S15" s="72"/>
+      <c r="S15" s="81"/>
       <c r="T15" s="53" t="s">
         <v>45</v>
       </c>
@@ -3985,13 +3990,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="73"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="J16" s="73"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="29" t="s">
         <v>46</v>
       </c>
@@ -4002,12 +4007,12 @@
         <f>2*D16*M5*H6</f>
         <v>0</v>
       </c>
-      <c r="O16" s="73"/>
+      <c r="O16" s="82"/>
       <c r="P16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="S16" s="73"/>
+      <c r="S16" s="82"/>
       <c r="T16" s="29" t="s">
         <v>46</v>
       </c>
@@ -4019,12 +4024,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="O14:O16"/>
@@ -4037,6 +4036,12 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
+++ b/05.analyses/demography/dadi/2D/models/dadi_2D_results_summary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1846" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C739A7-E6D1-4952-9157-E10403F2C9E1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21930" yWindow="-1650" windowWidth="21600" windowHeight="11175" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all model results" sheetId="1" r:id="rId1"/>
@@ -1233,10 +1233,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1504,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2699,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308ED89E-DA26-4FDF-A66E-E56BC04CEB67}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3387,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6C86A7-D54E-44B9-8D29-A3DBE24275A0}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
